--- a/source-code/dataset/dataset_enso.xlsx
+++ b/source-code/dataset/dataset_enso.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\! Riset Aryajaya Alamsyah\2024_BOPTN_Hopsot\source-code\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40921FAB-CE7C-4FE9-A4EF-F48DE3097922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009578B5-5AEA-4E33-AE8E-C872923F08D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{CF254216-5D8D-451F-A3BE-D9028E746B88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{CF254216-5D8D-451F-A3BE-D9028E746B88}"/>
   </bookViews>
   <sheets>
     <sheet name="SOI" sheetId="1" r:id="rId1"/>
     <sheet name="SOI Results" sheetId="2" r:id="rId2"/>
     <sheet name="SST" sheetId="3" r:id="rId3"/>
     <sheet name="SST Results" sheetId="4" r:id="rId4"/>
+    <sheet name="ONI" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -167,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,11 +194,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,75 +525,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07F99F4-951D-4B62-8534-88BA3DD4137A}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1:M1 A2:M2"/>
+    <sheetView topLeftCell="J1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27:AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3" t="s">
@@ -2927,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7548ABF-5FB3-4511-8B60-8900F5DFAAA6}">
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2955,10 +2962,10 @@
       <c r="A2" s="7">
         <v>36922</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="12">
         <v>1.6</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2966,10 +2973,10 @@
       <c r="A3" s="7">
         <v>36950</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>2.8</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>1.7</v>
       </c>
     </row>
@@ -2977,10 +2984,10 @@
       <c r="A4" s="7">
         <v>36981</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>1.5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="12">
         <v>0.9</v>
       </c>
     </row>
@@ -2988,10 +2995,10 @@
       <c r="A5" s="7">
         <v>37011</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <v>0.3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -2999,10 +3006,10 @@
       <c r="A6" s="7">
         <v>37042</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>-0.8</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="12">
         <v>-0.5</v>
       </c>
     </row>
@@ -3010,10 +3017,10 @@
       <c r="A7" s="7">
         <v>37072</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>0.5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -3021,10 +3028,10 @@
       <c r="A8" s="7">
         <v>37103</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="12">
         <v>-0.3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -3032,10 +3039,10 @@
       <c r="A9" s="7">
         <v>37134</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="12">
         <v>-0.7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="12">
         <v>-0.4</v>
       </c>
     </row>
@@ -3043,10 +3050,10 @@
       <c r="A10" s="7">
         <v>37164</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="12">
         <v>0.3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -3054,10 +3061,10 @@
       <c r="A11" s="7">
         <v>37195</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3065,10 +3072,10 @@
       <c r="A12" s="7">
         <v>37225</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="12">
         <v>0.7</v>
       </c>
     </row>
@@ -3076,10 +3083,10 @@
       <c r="A13" s="7">
         <v>37256</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="12">
         <v>-1.4</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="12">
         <v>-0.8</v>
       </c>
     </row>
@@ -3087,10 +3094,10 @@
       <c r="A14" s="7">
         <v>37287</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="12">
         <v>0.7</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -3098,10 +3105,10 @@
       <c r="A15" s="7">
         <v>37315</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="12">
         <v>1.8</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="12">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3109,10 +3116,10 @@
       <c r="A16" s="7">
         <v>37346</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="12">
         <v>-0.4</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -3120,10 +3127,10 @@
       <c r="A17" s="7">
         <v>37376</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -3131,10 +3138,10 @@
       <c r="A18" s="7">
         <v>37407</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="12">
         <v>-1.4</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="12">
         <v>-0.8</v>
       </c>
     </row>
@@ -3142,10 +3149,10 @@
       <c r="A19" s="7">
         <v>37437</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="12">
         <v>-0.4</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -3153,10 +3160,10 @@
       <c r="A20" s="7">
         <v>37468</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="12">
         <v>-0.8</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="12">
         <v>-0.5</v>
       </c>
     </row>
@@ -3164,10 +3171,10 @@
       <c r="A21" s="7">
         <v>37499</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="12">
         <v>-1.6</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="12">
         <v>-1</v>
       </c>
     </row>
@@ -3175,10 +3182,10 @@
       <c r="A22" s="7">
         <v>37529</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="12">
         <v>-1</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -3186,10 +3193,10 @@
       <c r="A23" s="7">
         <v>37560</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="12">
         <v>-0.6</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="12">
         <v>-0.4</v>
       </c>
     </row>
@@ -3197,10 +3204,10 @@
       <c r="A24" s="7">
         <v>37590</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="12">
         <v>-0.7</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="12">
         <v>-0.5</v>
       </c>
     </row>
@@ -3208,10 +3215,10 @@
       <c r="A25" s="7">
         <v>37621</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="12">
         <v>-1.8</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="12">
         <v>-1.1000000000000001</v>
       </c>
     </row>
@@ -3219,10 +3226,10 @@
       <c r="A26" s="7">
         <v>37652</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="12">
         <v>-0.3</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -3230,10 +3237,10 @@
       <c r="A27" s="7">
         <v>37680</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="12">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="12">
         <v>-0.7</v>
       </c>
     </row>
@@ -3241,10 +3248,10 @@
       <c r="A28" s="7">
         <v>37711</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="12">
         <v>-0.5</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -3252,10 +3259,10 @@
       <c r="A29" s="7">
         <v>37741</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -3263,10 +3270,10 @@
       <c r="A30" s="7">
         <v>37772</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="12">
         <v>-0.5</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -3274,10 +3281,10 @@
       <c r="A31" s="7">
         <v>37802</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="12">
         <v>-1</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -3285,10 +3292,10 @@
       <c r="A32" s="7">
         <v>37833</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="12">
         <v>0.5</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -3296,10 +3303,10 @@
       <c r="A33" s="7">
         <v>37864</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="12">
         <v>0.2</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -3307,10 +3314,10 @@
       <c r="A34" s="7">
         <v>37894</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -3318,10 +3325,10 @@
       <c r="A35" s="7">
         <v>37925</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="12">
         <v>0</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3329,10 +3336,10 @@
       <c r="A36" s="7">
         <v>37955</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="12">
         <v>-0.5</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -3340,10 +3347,10 @@
       <c r="A37" s="7">
         <v>37986</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="12">
         <v>1.8</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="12">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3351,10 +3358,10 @@
       <c r="A38" s="7">
         <v>38017</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="12">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="12">
         <v>-1.3</v>
       </c>
     </row>
@@ -3362,10 +3369,10 @@
       <c r="A39" s="7">
         <v>38046</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="12">
         <v>2</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="12">
         <v>1.2</v>
       </c>
     </row>
@@ -3373,10 +3380,10 @@
       <c r="A40" s="7">
         <v>38077</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="12">
         <v>0.7</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -3384,10 +3391,10 @@
       <c r="A41" s="7">
         <v>38107</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="12">
         <v>-1.5</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="12">
         <v>-0.9</v>
       </c>
     </row>
@@ -3395,10 +3402,10 @@
       <c r="A42" s="7">
         <v>38138</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="12">
         <v>1.7</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3406,10 +3413,10 @@
       <c r="A43" s="7">
         <v>38168</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="12">
         <v>-1.4</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="12">
         <v>-0.8</v>
       </c>
     </row>
@@ -3417,10 +3424,10 @@
       <c r="A44" s="7">
         <v>38199</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="12">
         <v>-0.8</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="12">
         <v>-0.5</v>
       </c>
     </row>
@@ -3428,10 +3435,10 @@
       <c r="A45" s="7">
         <v>38230</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="12">
         <v>-0.5</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -3439,10 +3446,10 @@
       <c r="A46" s="7">
         <v>38260</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="12">
         <v>-0.6</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -3450,10 +3457,10 @@
       <c r="A47" s="7">
         <v>38291</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -3461,10 +3468,10 @@
       <c r="A48" s="7">
         <v>38321</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="12">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="12">
         <v>-0.7</v>
       </c>
     </row>
@@ -3472,10 +3479,10 @@
       <c r="A49" s="7">
         <v>38352</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="12">
         <v>-1.3</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="12">
         <v>-0.8</v>
       </c>
     </row>
@@ -3483,10 +3490,10 @@
       <c r="A50" s="7">
         <v>38383</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="12">
         <v>0.6</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -3494,10 +3501,10 @@
       <c r="A51" s="7">
         <v>38411</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="12">
         <v>-5.2</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="12">
         <v>-3.1</v>
       </c>
     </row>
@@ -3505,10 +3512,10 @@
       <c r="A52" s="7">
         <v>38442</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="12">
         <v>0.5</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -3516,10 +3523,10 @@
       <c r="A53" s="7">
         <v>38472</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="12">
         <v>-1</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -3527,10 +3534,10 @@
       <c r="A54" s="7">
         <v>38503</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="12">
         <v>-1.3</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="12">
         <v>-0.8</v>
       </c>
     </row>
@@ -3538,10 +3545,10 @@
       <c r="A55" s="7">
         <v>38533</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="12">
         <v>0.7</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -3549,10 +3556,10 @@
       <c r="A56" s="7">
         <v>38564</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="12">
         <v>0.3</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -3560,10 +3567,10 @@
       <c r="A57" s="7">
         <v>38595</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="12">
         <v>-0.6</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -3571,10 +3578,10 @@
       <c r="A58" s="7">
         <v>38625</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="12">
         <v>0.6</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -3582,10 +3589,10 @@
       <c r="A59" s="7">
         <v>38656</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="12">
         <v>2</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="12">
         <v>1.2</v>
       </c>
     </row>
@@ -3593,10 +3600,10 @@
       <c r="A60" s="7">
         <v>38686</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="12">
         <v>-0.3</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -3604,10 +3611,10 @@
       <c r="A61" s="7">
         <v>38717</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="12">
         <v>0</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3615,10 +3622,10 @@
       <c r="A62" s="7">
         <v>38748</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="12">
         <v>2.7</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="12">
         <v>1.7</v>
       </c>
     </row>
@@ -3626,10 +3633,10 @@
       <c r="A63" s="7">
         <v>38776</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="12">
         <v>0.2</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -3637,10 +3644,10 @@
       <c r="A64" s="7">
         <v>38807</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="12">
         <v>2.9</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="12">
         <v>1.8</v>
       </c>
     </row>
@@ -3648,10 +3655,10 @@
       <c r="A65" s="7">
         <v>38837</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="12">
         <v>1.8</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="12">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3659,10 +3666,10 @@
       <c r="A66" s="7">
         <v>38868</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="12">
         <v>-0.8</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="12">
         <v>-0.5</v>
       </c>
     </row>
@@ -3670,10 +3677,10 @@
       <c r="A67" s="7">
         <v>38898</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="12">
         <v>-0.4</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -3681,10 +3688,10 @@
       <c r="A68" s="7">
         <v>38929</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="12">
         <v>-1</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -3692,10 +3699,10 @@
       <c r="A69" s="7">
         <v>38960</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="12">
         <v>-1.7</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="12">
         <v>-1</v>
       </c>
     </row>
@@ -3703,10 +3710,10 @@
       <c r="A70" s="7">
         <v>38990</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="12">
         <v>-1</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -3714,10 +3721,10 @@
       <c r="A71" s="7">
         <v>39021</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="12">
         <v>-2.1</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="12">
         <v>-1.3</v>
       </c>
     </row>
@@ -3725,10 +3732,10 @@
       <c r="A72" s="7">
         <v>39051</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="12">
         <v>0.1</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -3736,10 +3743,10 @@
       <c r="A73" s="7">
         <v>39082</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="12">
         <v>-0.5</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -3747,10 +3754,10 @@
       <c r="A74" s="7">
         <v>39113</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="12">
         <v>-1.3</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="12">
         <v>-0.8</v>
       </c>
     </row>
@@ -3758,10 +3765,10 @@
       <c r="A75" s="7">
         <v>39141</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -3769,10 +3776,10 @@
       <c r="A76" s="7">
         <v>39172</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="12">
         <v>0.3</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -3780,10 +3787,10 @@
       <c r="A77" s="7">
         <v>39202</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -3791,10 +3798,10 @@
       <c r="A78" s="7">
         <v>39233</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -3802,10 +3809,10 @@
       <c r="A79" s="7">
         <v>39263</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="12">
         <v>0.9</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -3813,10 +3820,10 @@
       <c r="A80" s="7">
         <v>39294</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="12">
         <v>-0.5</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -3824,10 +3831,10 @@
       <c r="A81" s="7">
         <v>39325</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="12">
         <v>0.7</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -3835,10 +3842,10 @@
       <c r="A82" s="7">
         <v>39355</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="12">
         <v>0.3</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -3846,10 +3853,10 @@
       <c r="A83" s="7">
         <v>39386</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="12">
         <v>1.2</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="12">
         <v>0.7</v>
       </c>
     </row>
@@ -3857,10 +3864,10 @@
       <c r="A84" s="7">
         <v>39416</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="12">
         <v>1.4</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="12">
         <v>0.9</v>
       </c>
     </row>
@@ -3868,10 +3875,10 @@
       <c r="A85" s="7">
         <v>39447</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="12">
         <v>2.7</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="12">
         <v>1.7</v>
       </c>
     </row>
@@ -3879,10 +3886,10 @@
       <c r="A86" s="7">
         <v>39478</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="12">
         <v>2.9</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="12">
         <v>1.8</v>
       </c>
     </row>
@@ -3890,10 +3897,10 @@
       <c r="A87" s="7">
         <v>39507</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="12">
         <v>2.6</v>
       </c>
     </row>
@@ -3901,10 +3908,10 @@
       <c r="A88" s="7">
         <v>39538</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="12">
         <v>2.4</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="12">
         <v>1.4</v>
       </c>
     </row>
@@ -3912,10 +3919,10 @@
       <c r="A89" s="7">
         <v>39568</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="12">
         <v>0.7</v>
       </c>
     </row>
@@ -3923,10 +3930,10 @@
       <c r="A90" s="7">
         <v>39599</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -3934,10 +3941,10 @@
       <c r="A91" s="7">
         <v>39629</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="12">
         <v>1</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="12">
         <v>0.6</v>
       </c>
     </row>
@@ -3945,10 +3952,10 @@
       <c r="A92" s="7">
         <v>39660</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="12">
         <v>0.5</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -3956,10 +3963,10 @@
       <c r="A93" s="7">
         <v>39691</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="12">
         <v>1.7</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3967,10 +3974,10 @@
       <c r="A94" s="7">
         <v>39721</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="12">
         <v>2</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="12">
         <v>1.2</v>
       </c>
     </row>
@@ -3978,10 +3985,10 @@
       <c r="A95" s="7">
         <v>39752</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="12">
         <v>2.1</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="12">
         <v>1.3</v>
       </c>
     </row>
@@ -3989,10 +3996,10 @@
       <c r="A96" s="7">
         <v>39782</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="12">
         <v>1.3</v>
       </c>
     </row>
@@ -4000,10 +4007,10 @@
       <c r="A97" s="7">
         <v>39813</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="12">
         <v>2.4</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="12">
         <v>1.4</v>
       </c>
     </row>
@@ -4011,10 +4018,10 @@
       <c r="A98" s="7">
         <v>39844</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="12">
         <v>1.8</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="12">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4022,10 +4029,10 @@
       <c r="A99" s="7">
         <v>39872</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="12">
         <v>3.1</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="12">
         <v>1.9</v>
       </c>
     </row>
@@ -4033,10 +4040,10 @@
       <c r="A100" s="7">
         <v>39903</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="12">
         <v>0.7</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -4044,10 +4051,10 @@
       <c r="A101" s="7">
         <v>39933</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="12">
         <v>1.3</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="12">
         <v>0.8</v>
       </c>
     </row>
@@ -4055,10 +4062,10 @@
       <c r="A102" s="7">
         <v>39964</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -4066,10 +4073,10 @@
       <c r="A103" s="7">
         <v>39994</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="12">
         <v>0.2</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -4077,10 +4084,10 @@
       <c r="A104" s="7">
         <v>40025</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="12">
         <v>0.4</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -4088,10 +4095,10 @@
       <c r="A105" s="7">
         <v>40056</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="12">
         <v>-0.3</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -4099,10 +4106,10 @@
       <c r="A106" s="7">
         <v>40086</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="12">
         <v>0.5</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -4110,10 +4117,10 @@
       <c r="A107" s="7">
         <v>40117</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="12">
         <v>-2</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="12">
         <v>-1.2</v>
       </c>
     </row>
@@ -4121,10 +4128,10 @@
       <c r="A108" s="7">
         <v>40147</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" s="12">
         <v>-1</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -4132,10 +4139,10 @@
       <c r="A109" s="7">
         <v>40178</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="12">
         <v>-1.2</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="12">
         <v>-0.7</v>
       </c>
     </row>
@@ -4143,10 +4150,10 @@
       <c r="A110" s="7">
         <v>40209</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="12">
         <v>-1.8</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="12">
         <v>-1.1000000000000001</v>
       </c>
     </row>
@@ -4154,10 +4161,10 @@
       <c r="A111" s="7">
         <v>40237</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="12">
         <v>-2.4</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="12">
         <v>-1.5</v>
       </c>
     </row>
@@ -4165,10 +4172,10 @@
       <c r="A112" s="7">
         <v>40268</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="12">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="12">
         <v>-0.7</v>
       </c>
     </row>
@@ -4176,10 +4183,10 @@
       <c r="A113" s="7">
         <v>40298</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="12">
         <v>2</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="12">
         <v>1.2</v>
       </c>
     </row>
@@ -4187,10 +4194,10 @@
       <c r="A114" s="7">
         <v>40329</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="12">
         <v>1.5</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="12">
         <v>0.9</v>
       </c>
     </row>
@@ -4198,10 +4205,10 @@
       <c r="A115" s="7">
         <v>40359</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="12">
         <v>0.6</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -4209,10 +4216,10 @@
       <c r="A116" s="7">
         <v>40390</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="12">
         <v>3</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="12">
         <v>1.8</v>
       </c>
     </row>
@@ -4220,10 +4227,10 @@
       <c r="A117" s="7">
         <v>40421</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="12">
         <v>3</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="12">
         <v>1.8</v>
       </c>
     </row>
@@ -4231,10 +4238,10 @@
       <c r="A118" s="7">
         <v>40451</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="12">
         <v>3.7</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="12">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -4242,10 +4249,10 @@
       <c r="A119" s="7">
         <v>40482</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="12">
         <v>2.9</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="12">
         <v>1.7</v>
       </c>
     </row>
@@ -4253,10 +4260,10 @@
       <c r="A120" s="7">
         <v>40512</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" s="12">
         <v>2.1</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="12">
         <v>1.3</v>
       </c>
     </row>
@@ -4264,10 +4271,10 @@
       <c r="A121" s="7">
         <v>40543</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="12">
         <v>4.8</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="12">
         <v>2.9</v>
       </c>
     </row>
@@ -4275,10 +4282,10 @@
       <c r="A122" s="7">
         <v>40574</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="12">
         <v>3.8</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="12">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4286,10 +4293,10 @@
       <c r="A123" s="7">
         <v>40602</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="12">
         <v>4.5</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="12">
         <v>2.7</v>
       </c>
     </row>
@@ -4297,10 +4304,10 @@
       <c r="A124" s="7">
         <v>40633</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="12">
         <v>4.2</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="12">
         <v>2.5</v>
       </c>
     </row>
@@ -4308,10 +4315,10 @@
       <c r="A125" s="7">
         <v>40663</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="12">
         <v>3.1</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="12">
         <v>1.9</v>
       </c>
     </row>
@@ -4319,10 +4326,10 @@
       <c r="A126" s="7">
         <v>40694</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="12">
         <v>0.6</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -4330,10 +4337,10 @@
       <c r="A127" s="7">
         <v>40724</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="12">
         <v>0.4</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -4341,10 +4348,10 @@
       <c r="A128" s="7">
         <v>40755</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="12">
         <v>1.6</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="12">
         <v>1</v>
       </c>
     </row>
@@ -4352,10 +4359,10 @@
       <c r="A129" s="7">
         <v>40786</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="12">
         <v>0.7</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -4363,10 +4370,10 @@
       <c r="A130" s="7">
         <v>40816</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="12">
         <v>1.7</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="12">
         <v>1</v>
       </c>
     </row>
@@ -4374,10 +4381,10 @@
       <c r="A131" s="7">
         <v>40847</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="12">
         <v>1.2</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="12">
         <v>0.8</v>
       </c>
     </row>
@@ -4385,10 +4392,10 @@
       <c r="A132" s="7">
         <v>40877</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="12">
         <v>1.8</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="12">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4396,10 +4403,10 @@
       <c r="A133" s="7">
         <v>40908</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C133" s="12">
         <v>2.5</v>
       </c>
     </row>
@@ -4407,10 +4414,10 @@
       <c r="A134" s="7">
         <v>40939</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134" s="12">
         <v>1.8</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="12">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4418,10 +4425,10 @@
       <c r="A135" s="7">
         <v>40968</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" s="12">
         <v>0.8</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -4429,10 +4436,10 @@
       <c r="A136" s="7">
         <v>40999</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="12">
         <v>1.2</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C136" s="12">
         <v>0.7</v>
       </c>
     </row>
@@ -4440,10 +4447,10 @@
       <c r="A137" s="7">
         <v>41029</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="12">
         <v>-0.4</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C137" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -4451,10 +4458,10 @@
       <c r="A138" s="7">
         <v>41060</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" s="12">
         <v>0.1</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4462,10 +4469,10 @@
       <c r="A139" s="7">
         <v>41090</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139" s="12">
         <v>-0.7</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="12">
         <v>-0.4</v>
       </c>
     </row>
@@ -4473,10 +4480,10 @@
       <c r="A140" s="7">
         <v>41121</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C140" s="9">
+      <c r="C140" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4484,10 +4491,10 @@
       <c r="A141" s="7">
         <v>41152</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" s="12">
         <v>-0.3</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C141" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -4495,10 +4502,10 @@
       <c r="A142" s="7">
         <v>41182</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" s="12">
         <v>0.4</v>
       </c>
-      <c r="C142" s="9">
+      <c r="C142" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -4506,10 +4513,10 @@
       <c r="A143" s="7">
         <v>41213</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="12">
         <v>0.5</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C143" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -4517,10 +4524,10 @@
       <c r="A144" s="7">
         <v>41243</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="12">
         <v>0.4</v>
       </c>
-      <c r="C144" s="9">
+      <c r="C144" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -4528,10 +4535,10 @@
       <c r="A145" s="7">
         <v>41274</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" s="12">
         <v>-1</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C145" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -4539,10 +4546,10 @@
       <c r="A146" s="7">
         <v>41305</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C146" s="9">
+      <c r="C146" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -4550,10 +4557,10 @@
       <c r="A147" s="7">
         <v>41333</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B147" s="12">
         <v>-0.4</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C147" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -4561,10 +4568,10 @@
       <c r="A148" s="7">
         <v>41364</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="12">
         <v>2.5</v>
       </c>
-      <c r="C148" s="9">
+      <c r="C148" s="12">
         <v>1.5</v>
       </c>
     </row>
@@ -4572,10 +4579,10 @@
       <c r="A149" s="7">
         <v>41394</v>
       </c>
-      <c r="B149" s="9">
+      <c r="B149" s="12">
         <v>0.4</v>
       </c>
-      <c r="C149" s="9">
+      <c r="C149" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -4583,10 +4590,10 @@
       <c r="A150" s="7">
         <v>41425</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B150" s="12">
         <v>1.3</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C150" s="12">
         <v>0.8</v>
       </c>
     </row>
@@ -4594,10 +4601,10 @@
       <c r="A151" s="7">
         <v>41455</v>
       </c>
-      <c r="B151" s="9">
+      <c r="B151" s="12">
         <v>2</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C151" s="12">
         <v>1.2</v>
       </c>
     </row>
@@ -4605,10 +4612,10 @@
       <c r="A152" s="7">
         <v>41486</v>
       </c>
-      <c r="B152" s="9">
+      <c r="B152" s="12">
         <v>1.3</v>
       </c>
-      <c r="C152" s="9">
+      <c r="C152" s="12">
         <v>0.8</v>
       </c>
     </row>
@@ -4616,10 +4623,10 @@
       <c r="A153" s="7">
         <v>41517</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" s="12">
         <v>0.3</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C153" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -4627,10 +4634,10 @@
       <c r="A154" s="7">
         <v>41547</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B154" s="12">
         <v>0.5</v>
       </c>
-      <c r="C154" s="9">
+      <c r="C154" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -4638,10 +4645,10 @@
       <c r="A155" s="7">
         <v>41578</v>
       </c>
-      <c r="B155" s="9">
+      <c r="B155" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C155" s="9">
+      <c r="C155" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -4649,10 +4656,10 @@
       <c r="A156" s="7">
         <v>41608</v>
       </c>
-      <c r="B156" s="9">
+      <c r="B156" s="12">
         <v>1.2</v>
       </c>
-      <c r="C156" s="9">
+      <c r="C156" s="12">
         <v>0.7</v>
       </c>
     </row>
@@ -4660,10 +4667,10 @@
       <c r="A157" s="7">
         <v>41639</v>
       </c>
-      <c r="B157" s="9">
+      <c r="B157" s="12">
         <v>0.1</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -4671,10 +4678,10 @@
       <c r="A158" s="7">
         <v>41670</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="12">
         <v>2.4</v>
       </c>
-      <c r="C158" s="9">
+      <c r="C158" s="12">
         <v>1.4</v>
       </c>
     </row>
@@ -4682,10 +4689,10 @@
       <c r="A159" s="7">
         <v>41698</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="12">
         <v>0.1</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C159" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -4693,10 +4700,10 @@
       <c r="A160" s="7">
         <v>41729</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="12">
         <v>-1.5</v>
       </c>
-      <c r="C160" s="9">
+      <c r="C160" s="12">
         <v>-0.9</v>
       </c>
     </row>
@@ -4704,10 +4711,10 @@
       <c r="A161" s="7">
         <v>41759</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="12">
         <v>1.3</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C161" s="12">
         <v>0.8</v>
       </c>
     </row>
@@ -4715,10 +4722,10 @@
       <c r="A162" s="7">
         <v>41790</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="12">
         <v>0.9</v>
       </c>
-      <c r="C162" s="9">
+      <c r="C162" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -4726,10 +4733,10 @@
       <c r="A163" s="7">
         <v>41820</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="12">
         <v>0.3</v>
       </c>
-      <c r="C163" s="9">
+      <c r="C163" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -4737,10 +4744,10 @@
       <c r="A164" s="7">
         <v>41851</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="12">
         <v>-0.3</v>
       </c>
-      <c r="C164" s="9">
+      <c r="C164" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -4748,10 +4755,10 @@
       <c r="A165" s="7">
         <v>41882</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="12">
         <v>-1.2</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C165" s="12">
         <v>-0.7</v>
       </c>
     </row>
@@ -4759,10 +4766,10 @@
       <c r="A166" s="7">
         <v>41912</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" s="12">
         <v>-1.2</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="12">
         <v>-0.7</v>
       </c>
     </row>
@@ -4770,10 +4777,10 @@
       <c r="A167" s="7">
         <v>41943</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" s="12">
         <v>-1</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -4781,10 +4788,10 @@
       <c r="A168" s="7">
         <v>41973</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B168" s="12">
         <v>-1.5</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="12">
         <v>-0.9</v>
       </c>
     </row>
@@ -4792,10 +4799,10 @@
       <c r="A169" s="7">
         <v>42004</v>
       </c>
-      <c r="B169" s="9">
+      <c r="B169" s="12">
         <v>-0.9</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -4803,10 +4810,10 @@
       <c r="A170" s="7">
         <v>42035</v>
       </c>
-      <c r="B170" s="9">
+      <c r="B170" s="12">
         <v>-1.4</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="12">
         <v>-0.8</v>
       </c>
     </row>
@@ -4814,10 +4821,10 @@
       <c r="A171" s="7">
         <v>42063</v>
       </c>
-      <c r="B171" s="9">
+      <c r="B171" s="12">
         <v>0.4</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -4825,10 +4832,10 @@
       <c r="A172" s="7">
         <v>42094</v>
       </c>
-      <c r="B172" s="9">
+      <c r="B172" s="12">
         <v>-1.2</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="12">
         <v>-0.7</v>
       </c>
     </row>
@@ -4836,10 +4843,10 @@
       <c r="A173" s="7">
         <v>42124</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4847,10 +4854,10 @@
       <c r="A174" s="7">
         <v>42155</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" s="12">
         <v>-1.2</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="12">
         <v>-0.7</v>
       </c>
     </row>
@@ -4858,10 +4865,10 @@
       <c r="A175" s="7">
         <v>42185</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B175" s="12">
         <v>-0.9</v>
       </c>
-      <c r="C175" s="9">
+      <c r="C175" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -4869,10 +4876,10 @@
       <c r="A176" s="7">
         <v>42216</v>
       </c>
-      <c r="B176" s="9">
+      <c r="B176" s="12">
         <v>-1.9</v>
       </c>
-      <c r="C176" s="9">
+      <c r="C176" s="12">
         <v>-1.1000000000000001</v>
       </c>
     </row>
@@ -4880,10 +4887,10 @@
       <c r="A177" s="7">
         <v>42247</v>
       </c>
-      <c r="B177" s="9">
+      <c r="B177" s="12">
         <v>-2.4</v>
       </c>
-      <c r="C177" s="9">
+      <c r="C177" s="12">
         <v>-1.4</v>
       </c>
     </row>
@@ -4891,10 +4898,10 @@
       <c r="A178" s="7">
         <v>42277</v>
       </c>
-      <c r="B178" s="9">
+      <c r="B178" s="12">
         <v>-2.7</v>
       </c>
-      <c r="C178" s="9">
+      <c r="C178" s="12">
         <v>-1.6</v>
       </c>
     </row>
@@ -4902,10 +4909,10 @@
       <c r="A179" s="7">
         <v>42308</v>
       </c>
-      <c r="B179" s="9">
+      <c r="B179" s="12">
         <v>-2.8</v>
       </c>
-      <c r="C179" s="9">
+      <c r="C179" s="12">
         <v>-1.7</v>
       </c>
     </row>
@@ -4913,10 +4920,10 @@
       <c r="A180" s="7">
         <v>42338</v>
       </c>
-      <c r="B180" s="9">
+      <c r="B180" s="12">
         <v>-0.8</v>
       </c>
-      <c r="C180" s="9">
+      <c r="C180" s="12">
         <v>-0.5</v>
       </c>
     </row>
@@ -4924,10 +4931,10 @@
       <c r="A181" s="7">
         <v>42369</v>
       </c>
-      <c r="B181" s="9">
+      <c r="B181" s="12">
         <v>-0.9</v>
       </c>
-      <c r="C181" s="9">
+      <c r="C181" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -4935,10 +4942,10 @@
       <c r="A182" s="7">
         <v>42400</v>
       </c>
-      <c r="B182" s="9">
+      <c r="B182" s="12">
         <v>-3.6</v>
       </c>
-      <c r="C182" s="9">
+      <c r="C182" s="12">
         <v>-2.2000000000000002</v>
       </c>
     </row>
@@ -4946,10 +4953,10 @@
       <c r="A183" s="7">
         <v>42429</v>
       </c>
-      <c r="B183" s="9">
+      <c r="B183" s="12">
         <v>-3.2</v>
       </c>
-      <c r="C183" s="9">
+      <c r="C183" s="12">
         <v>-2</v>
       </c>
     </row>
@@ -4957,10 +4964,10 @@
       <c r="A184" s="7">
         <v>42460</v>
       </c>
-      <c r="B184" s="9">
+      <c r="B184" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C184" s="9">
+      <c r="C184" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -4968,10 +4975,10 @@
       <c r="A185" s="7">
         <v>42490</v>
       </c>
-      <c r="B185" s="9">
+      <c r="B185" s="12">
         <v>-2</v>
       </c>
-      <c r="C185" s="9">
+      <c r="C185" s="12">
         <v>-1.2</v>
       </c>
     </row>
@@ -4979,10 +4986,10 @@
       <c r="A186" s="7">
         <v>42521</v>
       </c>
-      <c r="B186" s="9">
+      <c r="B186" s="12">
         <v>0.7</v>
       </c>
-      <c r="C186" s="9">
+      <c r="C186" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -4990,10 +4997,10 @@
       <c r="A187" s="7">
         <v>42551</v>
       </c>
-      <c r="B187" s="9">
+      <c r="B187" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C187" s="9">
+      <c r="C187" s="12">
         <v>0.6</v>
       </c>
     </row>
@@ -5001,10 +5008,10 @@
       <c r="A188" s="7">
         <v>42582</v>
       </c>
-      <c r="B188" s="9">
+      <c r="B188" s="12">
         <v>0.7</v>
       </c>
-      <c r="C188" s="9">
+      <c r="C188" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -5012,10 +5019,10 @@
       <c r="A189" s="7">
         <v>42613</v>
       </c>
-      <c r="B189" s="9">
+      <c r="B189" s="12">
         <v>1.2</v>
       </c>
-      <c r="C189" s="9">
+      <c r="C189" s="12">
         <v>0.7</v>
       </c>
     </row>
@@ -5023,10 +5030,10 @@
       <c r="A190" s="7">
         <v>42643</v>
       </c>
-      <c r="B190" s="9">
+      <c r="B190" s="12">
         <v>2</v>
       </c>
-      <c r="C190" s="9">
+      <c r="C190" s="12">
         <v>1.2</v>
       </c>
     </row>
@@ -5034,10 +5041,10 @@
       <c r="A191" s="7">
         <v>42674</v>
       </c>
-      <c r="B191" s="9">
+      <c r="B191" s="12">
         <v>-0.4</v>
       </c>
-      <c r="C191" s="9">
+      <c r="C191" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -5045,10 +5052,10 @@
       <c r="A192" s="7">
         <v>42704</v>
       </c>
-      <c r="B192" s="9">
+      <c r="B192" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C192" s="9">
+      <c r="C192" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -5056,10 +5063,10 @@
       <c r="A193" s="7">
         <v>42735</v>
       </c>
-      <c r="B193" s="9">
+      <c r="B193" s="12">
         <v>0.5</v>
       </c>
-      <c r="C193" s="9">
+      <c r="C193" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -5067,10 +5074,10 @@
       <c r="A194" s="7">
         <v>42766</v>
       </c>
-      <c r="B194" s="9">
+      <c r="B194" s="12">
         <v>0.3</v>
       </c>
-      <c r="C194" s="9">
+      <c r="C194" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -5078,10 +5085,10 @@
       <c r="A195" s="7">
         <v>42794</v>
       </c>
-      <c r="B195" s="9">
+      <c r="B195" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C195" s="9">
+      <c r="C195" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -5089,10 +5096,10 @@
       <c r="A196" s="7">
         <v>42825</v>
       </c>
-      <c r="B196" s="9">
+      <c r="B196" s="12">
         <v>1.5</v>
       </c>
-      <c r="C196" s="9">
+      <c r="C196" s="12">
         <v>0.9</v>
       </c>
     </row>
@@ -5100,10 +5107,10 @@
       <c r="A197" s="7">
         <v>42855</v>
       </c>
-      <c r="B197" s="9">
+      <c r="B197" s="12">
         <v>-0.3</v>
       </c>
-      <c r="C197" s="9">
+      <c r="C197" s="12">
         <v>-0.2</v>
       </c>
     </row>
@@ -5111,10 +5118,10 @@
       <c r="A198" s="7">
         <v>42886</v>
       </c>
-      <c r="B198" s="9">
+      <c r="B198" s="12">
         <v>0.4</v>
       </c>
-      <c r="C198" s="9">
+      <c r="C198" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -5122,10 +5129,10 @@
       <c r="A199" s="7">
         <v>42916</v>
       </c>
-      <c r="B199" s="9">
+      <c r="B199" s="12">
         <v>-0.7</v>
       </c>
-      <c r="C199" s="9">
+      <c r="C199" s="12">
         <v>-0.4</v>
       </c>
     </row>
@@ -5133,10 +5140,10 @@
       <c r="A200" s="7">
         <v>42947</v>
       </c>
-      <c r="B200" s="9">
+      <c r="B200" s="12">
         <v>1.3</v>
       </c>
-      <c r="C200" s="9">
+      <c r="C200" s="12">
         <v>0.8</v>
       </c>
     </row>
@@ -5144,10 +5151,10 @@
       <c r="A201" s="7">
         <v>42978</v>
       </c>
-      <c r="B201" s="9">
+      <c r="B201" s="12">
         <v>0.9</v>
       </c>
-      <c r="C201" s="9">
+      <c r="C201" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -5155,10 +5162,10 @@
       <c r="A202" s="7">
         <v>43008</v>
       </c>
-      <c r="B202" s="9">
+      <c r="B202" s="12">
         <v>1</v>
       </c>
-      <c r="C202" s="9">
+      <c r="C202" s="12">
         <v>0.6</v>
       </c>
     </row>
@@ -5166,10 +5173,10 @@
       <c r="A203" s="7">
         <v>43039</v>
       </c>
-      <c r="B203" s="9">
+      <c r="B203" s="12">
         <v>1.5</v>
       </c>
-      <c r="C203" s="9">
+      <c r="C203" s="12">
         <v>0.9</v>
       </c>
     </row>
@@ -5177,10 +5184,10 @@
       <c r="A204" s="7">
         <v>43069</v>
       </c>
-      <c r="B204" s="9">
+      <c r="B204" s="12">
         <v>1.5</v>
       </c>
-      <c r="C204" s="9">
+      <c r="C204" s="12">
         <v>0.9</v>
       </c>
     </row>
@@ -5188,10 +5195,10 @@
       <c r="A205" s="7">
         <v>43100</v>
       </c>
-      <c r="B205" s="9">
+      <c r="B205" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C205" s="9">
+      <c r="C205" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -5199,10 +5206,10 @@
       <c r="A206" s="7">
         <v>43131</v>
       </c>
-      <c r="B206" s="9">
+      <c r="B206" s="12">
         <v>1.8</v>
       </c>
-      <c r="C206" s="9">
+      <c r="C206" s="12">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5210,10 +5217,10 @@
       <c r="A207" s="7">
         <v>43159</v>
       </c>
-      <c r="B207" s="9">
+      <c r="B207" s="12">
         <v>-0.8</v>
       </c>
-      <c r="C207" s="9">
+      <c r="C207" s="12">
         <v>-0.5</v>
       </c>
     </row>
@@ -5221,10 +5228,10 @@
       <c r="A208" s="7">
         <v>43190</v>
       </c>
-      <c r="B208" s="9">
+      <c r="B208" s="12">
         <v>2.4</v>
       </c>
-      <c r="C208" s="9">
+      <c r="C208" s="12">
         <v>1.5</v>
       </c>
     </row>
@@ -5232,10 +5239,10 @@
       <c r="A209" s="7">
         <v>43220</v>
       </c>
-      <c r="B209" s="9">
+      <c r="B209" s="12">
         <v>0.8</v>
       </c>
-      <c r="C209" s="9">
+      <c r="C209" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -5243,10 +5250,10 @@
       <c r="A210" s="7">
         <v>43251</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="12">
         <v>0.6</v>
       </c>
-      <c r="C210" s="9">
+      <c r="C210" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -5254,10 +5261,10 @@
       <c r="A211" s="7">
         <v>43281</v>
       </c>
-      <c r="B211" s="9">
+      <c r="B211" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C211" s="9">
+      <c r="C211" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -5265,10 +5272,10 @@
       <c r="A212" s="7">
         <v>43312</v>
       </c>
-      <c r="B212" s="9">
+      <c r="B212" s="12">
         <v>0.4</v>
       </c>
-      <c r="C212" s="9">
+      <c r="C212" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -5276,10 +5283,10 @@
       <c r="A213" s="7">
         <v>43343</v>
       </c>
-      <c r="B213" s="9">
+      <c r="B213" s="12">
         <v>-0.5</v>
       </c>
-      <c r="C213" s="9">
+      <c r="C213" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -5287,10 +5294,10 @@
       <c r="A214" s="7">
         <v>43373</v>
       </c>
-      <c r="B214" s="9">
+      <c r="B214" s="12">
         <v>-1.5</v>
       </c>
-      <c r="C214" s="9">
+      <c r="C214" s="12">
         <v>-0.9</v>
       </c>
     </row>
@@ -5298,10 +5305,10 @@
       <c r="A215" s="7">
         <v>43404</v>
       </c>
-      <c r="B215" s="9">
+      <c r="B215" s="12">
         <v>0.6</v>
       </c>
-      <c r="C215" s="9">
+      <c r="C215" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -5309,10 +5316,10 @@
       <c r="A216" s="7">
         <v>43434</v>
       </c>
-      <c r="B216" s="9">
+      <c r="B216" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C216" s="9">
+      <c r="C216" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -5320,10 +5327,10 @@
       <c r="A217" s="7">
         <v>43465</v>
       </c>
-      <c r="B217" s="9">
+      <c r="B217" s="12">
         <v>1.7</v>
       </c>
-      <c r="C217" s="9">
+      <c r="C217" s="12">
         <v>1</v>
       </c>
     </row>
@@ -5331,10 +5338,10 @@
       <c r="A218" s="7">
         <v>43496</v>
       </c>
-      <c r="B218" s="9">
+      <c r="B218" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C218" s="9">
+      <c r="C218" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5342,10 +5349,10 @@
       <c r="A219" s="7">
         <v>43524</v>
       </c>
-      <c r="B219" s="9">
+      <c r="B219" s="12">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="C219" s="9">
+      <c r="C219" s="12">
         <v>-1.4</v>
       </c>
     </row>
@@ -5353,10 +5360,10 @@
       <c r="A220" s="7">
         <v>43555</v>
       </c>
-      <c r="B220" s="9">
+      <c r="B220" s="12">
         <v>-0.5</v>
       </c>
-      <c r="C220" s="9">
+      <c r="C220" s="12">
         <v>-0.3</v>
       </c>
     </row>
@@ -5364,10 +5371,10 @@
       <c r="A221" s="7">
         <v>43585</v>
       </c>
-      <c r="B221" s="9">
+      <c r="B221" s="12">
         <v>0.2</v>
       </c>
-      <c r="C221" s="9">
+      <c r="C221" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -5375,10 +5382,10 @@
       <c r="A222" s="7">
         <v>43616</v>
       </c>
-      <c r="B222" s="9">
+      <c r="B222" s="12">
         <v>-0.7</v>
       </c>
-      <c r="C222" s="9">
+      <c r="C222" s="12">
         <v>-0.4</v>
       </c>
     </row>
@@ -5386,10 +5393,10 @@
       <c r="A223" s="7">
         <v>43646</v>
       </c>
-      <c r="B223" s="9">
+      <c r="B223" s="12">
         <v>-0.7</v>
       </c>
-      <c r="C223" s="9">
+      <c r="C223" s="12">
         <v>-0.5</v>
       </c>
     </row>
@@ -5397,10 +5404,10 @@
       <c r="A224" s="7">
         <v>43677</v>
       </c>
-      <c r="B224" s="9">
+      <c r="B224" s="12">
         <v>-0.6</v>
       </c>
-      <c r="C224" s="9">
+      <c r="C224" s="12">
         <v>-0.4</v>
       </c>
     </row>
@@ -5408,10 +5415,10 @@
       <c r="A225" s="7">
         <v>43708</v>
       </c>
-      <c r="B225" s="9">
+      <c r="B225" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C225" s="9">
+      <c r="C225" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -5419,10 +5426,10 @@
       <c r="A226" s="7">
         <v>43738</v>
       </c>
-      <c r="B226" s="9">
+      <c r="B226" s="12">
         <v>-1.9</v>
       </c>
-      <c r="C226" s="9">
+      <c r="C226" s="12">
         <v>-1.2</v>
       </c>
     </row>
@@ -5430,10 +5437,10 @@
       <c r="A227" s="7">
         <v>43769</v>
       </c>
-      <c r="B227" s="9">
+      <c r="B227" s="12">
         <v>-0.6</v>
       </c>
-      <c r="C227" s="9">
+      <c r="C227" s="12">
         <v>-0.4</v>
       </c>
     </row>
@@ -5441,10 +5448,10 @@
       <c r="A228" s="7">
         <v>43799</v>
       </c>
-      <c r="B228" s="9">
+      <c r="B228" s="12">
         <v>-1.4</v>
       </c>
-      <c r="C228" s="9">
+      <c r="C228" s="12">
         <v>-0.8</v>
       </c>
     </row>
@@ -5452,10 +5459,10 @@
       <c r="A229" s="7">
         <v>43830</v>
       </c>
-      <c r="B229" s="9">
+      <c r="B229" s="12">
         <v>-0.9</v>
       </c>
-      <c r="C229" s="9">
+      <c r="C229" s="12">
         <v>-0.6</v>
       </c>
     </row>
@@ -5463,10 +5470,10 @@
       <c r="A230" s="7">
         <v>43861</v>
       </c>
-      <c r="B230" s="9">
+      <c r="B230" s="12">
         <v>0.3</v>
       </c>
-      <c r="C230" s="9">
+      <c r="C230" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -5474,10 +5481,10 @@
       <c r="A231" s="7">
         <v>43890</v>
       </c>
-      <c r="B231" s="9">
+      <c r="B231" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C231" s="9">
+      <c r="C231" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -5485,10 +5492,10 @@
       <c r="A232" s="7">
         <v>43921</v>
       </c>
-      <c r="B232" s="9">
+      <c r="B232" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C232" s="9">
+      <c r="C232" s="12">
         <v>-0.1</v>
       </c>
     </row>
@@ -5496,10 +5503,10 @@
       <c r="A233" s="7">
         <v>43951</v>
       </c>
-      <c r="B233" s="9">
+      <c r="B233" s="12">
         <v>0.3</v>
       </c>
-      <c r="C233" s="9">
+      <c r="C233" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -5507,10 +5514,10 @@
       <c r="A234" s="7">
         <v>43982</v>
       </c>
-      <c r="B234" s="9">
+      <c r="B234" s="12">
         <v>0.7</v>
       </c>
-      <c r="C234" s="9">
+      <c r="C234" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -5518,10 +5525,10 @@
       <c r="A235" s="7">
         <v>44012</v>
       </c>
-      <c r="B235" s="9">
+      <c r="B235" s="12">
         <v>-0.6</v>
       </c>
-      <c r="C235" s="9">
+      <c r="C235" s="12">
         <v>-0.4</v>
       </c>
     </row>
@@ -5529,10 +5536,10 @@
       <c r="A236" s="7">
         <v>44043</v>
       </c>
-      <c r="B236" s="9">
+      <c r="B236" s="12">
         <v>0.7</v>
       </c>
-      <c r="C236" s="9">
+      <c r="C236" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -5540,10 +5547,10 @@
       <c r="A237" s="7">
         <v>44074</v>
       </c>
-      <c r="B237" s="9">
+      <c r="B237" s="12">
         <v>1.8</v>
       </c>
-      <c r="C237" s="9">
+      <c r="C237" s="12">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5551,10 +5558,10 @@
       <c r="A238" s="7">
         <v>44104</v>
       </c>
-      <c r="B238" s="9">
+      <c r="B238" s="12">
         <v>1.5</v>
       </c>
-      <c r="C238" s="9">
+      <c r="C238" s="12">
         <v>0.9</v>
       </c>
     </row>
@@ -5562,10 +5569,10 @@
       <c r="A239" s="7">
         <v>44135</v>
       </c>
-      <c r="B239" s="9">
+      <c r="B239" s="12">
         <v>0.8</v>
       </c>
-      <c r="C239" s="9">
+      <c r="C239" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -5573,10 +5580,10 @@
       <c r="A240" s="7">
         <v>44165</v>
       </c>
-      <c r="B240" s="9">
+      <c r="B240" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C240" s="9">
+      <c r="C240" s="12">
         <v>0.7</v>
       </c>
     </row>
@@ -5584,10 +5591,10 @@
       <c r="A241" s="7">
         <v>44196</v>
       </c>
-      <c r="B241" s="9">
+      <c r="B241" s="12">
         <v>3</v>
       </c>
-      <c r="C241" s="9">
+      <c r="C241" s="12">
         <v>1.8</v>
       </c>
     </row>
@@ -5595,10 +5602,10 @@
       <c r="A242" s="7">
         <v>44227</v>
       </c>
-      <c r="B242" s="9">
+      <c r="B242" s="12">
         <v>3.2</v>
       </c>
-      <c r="C242" s="9">
+      <c r="C242" s="12">
         <v>1.9</v>
       </c>
     </row>
@@ -5606,10 +5613,10 @@
       <c r="A243" s="7">
         <v>44255</v>
       </c>
-      <c r="B243" s="9">
+      <c r="B243" s="12">
         <v>2.5</v>
       </c>
-      <c r="C243" s="9">
+      <c r="C243" s="12">
         <v>1.5</v>
       </c>
     </row>
@@ -5617,10 +5624,10 @@
       <c r="A244" s="7">
         <v>44286</v>
       </c>
-      <c r="B244" s="9">
+      <c r="B244" s="12">
         <v>0.6</v>
       </c>
-      <c r="C244" s="9">
+      <c r="C244" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -5628,10 +5635,10 @@
       <c r="A245" s="7">
         <v>44316</v>
       </c>
-      <c r="B245" s="9">
+      <c r="B245" s="12">
         <v>0.6</v>
       </c>
-      <c r="C245" s="9">
+      <c r="C245" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -5639,10 +5646,10 @@
       <c r="A246" s="7">
         <v>44347</v>
       </c>
-      <c r="B246" s="9">
+      <c r="B246" s="12">
         <v>0.8</v>
       </c>
-      <c r="C246" s="9">
+      <c r="C246" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -5650,10 +5657,10 @@
       <c r="A247" s="7">
         <v>44377</v>
       </c>
-      <c r="B247" s="9">
+      <c r="B247" s="12">
         <v>0.7</v>
       </c>
-      <c r="C247" s="9">
+      <c r="C247" s="12">
         <v>0.4</v>
       </c>
     </row>
@@ -5661,10 +5668,10 @@
       <c r="A248" s="7">
         <v>44408</v>
       </c>
-      <c r="B248" s="9">
+      <c r="B248" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C248" s="9">
+      <c r="C248" s="12">
         <v>1.4</v>
       </c>
     </row>
@@ -5672,10 +5679,10 @@
       <c r="A249" s="7">
         <v>44439</v>
       </c>
-      <c r="B249" s="9">
+      <c r="B249" s="12">
         <v>1</v>
       </c>
-      <c r="C249" s="9">
+      <c r="C249" s="12">
         <v>0.6</v>
       </c>
     </row>
@@ -5683,10 +5690,10 @@
       <c r="A250" s="7">
         <v>44469</v>
       </c>
-      <c r="B250" s="9">
+      <c r="B250" s="12">
         <v>1.3</v>
       </c>
-      <c r="C250" s="9">
+      <c r="C250" s="12">
         <v>0.8</v>
       </c>
     </row>
@@ -5694,10 +5701,10 @@
       <c r="A251" s="7">
         <v>44500</v>
       </c>
-      <c r="B251" s="9">
+      <c r="B251" s="12">
         <v>1.2</v>
       </c>
-      <c r="C251" s="9">
+      <c r="C251" s="12">
         <v>0.7</v>
       </c>
     </row>
@@ -5705,10 +5712,10 @@
       <c r="A252" s="7">
         <v>44530</v>
       </c>
-      <c r="B252" s="9">
+      <c r="B252" s="12">
         <v>1.6</v>
       </c>
-      <c r="C252" s="9">
+      <c r="C252" s="12">
         <v>1</v>
       </c>
     </row>
@@ -5716,10 +5723,10 @@
       <c r="A253" s="7">
         <v>44561</v>
       </c>
-      <c r="B253" s="9">
+      <c r="B253" s="12">
         <v>2.5</v>
       </c>
-      <c r="C253" s="9">
+      <c r="C253" s="12">
         <v>1.5</v>
       </c>
     </row>
@@ -5727,10 +5734,10 @@
       <c r="A254" s="7">
         <v>44592</v>
       </c>
-      <c r="B254" s="9">
+      <c r="B254" s="12">
         <v>0.8</v>
       </c>
-      <c r="C254" s="9">
+      <c r="C254" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -5738,10 +5745,10 @@
       <c r="A255" s="7">
         <v>44620</v>
       </c>
-      <c r="B255" s="9">
+      <c r="B255" s="12">
         <v>1.8</v>
       </c>
-      <c r="C255" s="9">
+      <c r="C255" s="12">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5749,10 +5756,10 @@
       <c r="A256" s="7">
         <v>44651</v>
       </c>
-      <c r="B256" s="9">
+      <c r="B256" s="12">
         <v>2.9</v>
       </c>
-      <c r="C256" s="9">
+      <c r="C256" s="12">
         <v>1.8</v>
       </c>
     </row>
@@ -5760,10 +5767,10 @@
       <c r="A257" s="7">
         <v>44681</v>
       </c>
-      <c r="B257" s="9">
+      <c r="B257" s="12">
         <v>2.8</v>
       </c>
-      <c r="C257" s="9">
+      <c r="C257" s="12">
         <v>1.7</v>
       </c>
     </row>
@@ -5771,10 +5778,10 @@
       <c r="A258" s="7">
         <v>44712</v>
       </c>
-      <c r="B258" s="9">
+      <c r="B258" s="12">
         <v>2.4</v>
       </c>
-      <c r="C258" s="9">
+      <c r="C258" s="12">
         <v>1.4</v>
       </c>
     </row>
@@ -5782,10 +5789,10 @@
       <c r="A259" s="7">
         <v>44742</v>
       </c>
-      <c r="B259" s="9">
+      <c r="B259" s="12">
         <v>2.8</v>
       </c>
-      <c r="C259" s="9">
+      <c r="C259" s="12">
         <v>1.7</v>
       </c>
     </row>
@@ -5793,10 +5800,10 @@
       <c r="A260" s="7">
         <v>44773</v>
       </c>
-      <c r="B260" s="9">
+      <c r="B260" s="12">
         <v>1.3</v>
       </c>
-      <c r="C260" s="9">
+      <c r="C260" s="12">
         <v>0.8</v>
       </c>
     </row>
@@ -5804,10 +5811,10 @@
       <c r="A261" s="7">
         <v>44804</v>
       </c>
-      <c r="B261" s="9">
+      <c r="B261" s="12">
         <v>1.7</v>
       </c>
-      <c r="C261" s="9">
+      <c r="C261" s="12">
         <v>1</v>
       </c>
     </row>
@@ -5815,10 +5822,10 @@
       <c r="A262" s="7">
         <v>44834</v>
       </c>
-      <c r="B262" s="9">
+      <c r="B262" s="12">
         <v>2.7</v>
       </c>
-      <c r="C262" s="9">
+      <c r="C262" s="12">
         <v>1.6</v>
       </c>
     </row>
@@ -5826,10 +5833,10 @@
       <c r="A263" s="7">
         <v>44865</v>
       </c>
-      <c r="B263" s="9">
+      <c r="B263" s="12">
         <v>2.8</v>
       </c>
-      <c r="C263" s="9">
+      <c r="C263" s="12">
         <v>1.7</v>
       </c>
     </row>
@@ -5837,10 +5844,10 @@
       <c r="A264" s="7">
         <v>44895</v>
       </c>
-      <c r="B264" s="9">
+      <c r="B264" s="12">
         <v>0.5</v>
       </c>
-      <c r="C264" s="9">
+      <c r="C264" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -5848,11 +5855,143 @@
       <c r="A265" s="7">
         <v>44926</v>
       </c>
-      <c r="B265" s="9">
+      <c r="B265" s="12">
         <v>3.5</v>
       </c>
-      <c r="C265" s="9">
+      <c r="C265" s="12">
         <v>2.1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="11">
+        <v>44957</v>
+      </c>
+      <c r="B266" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C266" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="11">
+        <v>44985</v>
+      </c>
+      <c r="B267" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C267" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="11">
+        <v>45016</v>
+      </c>
+      <c r="B268" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C268" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="11">
+        <v>45046</v>
+      </c>
+      <c r="B269" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="C269" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="11">
+        <v>45077</v>
+      </c>
+      <c r="B270" s="12">
+        <v>-1.7</v>
+      </c>
+      <c r="C270" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="11">
+        <v>45107</v>
+      </c>
+      <c r="B271" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="C271" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="11">
+        <v>45138</v>
+      </c>
+      <c r="B272" s="12">
+        <v>-0.4</v>
+      </c>
+      <c r="C272" s="12">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="11">
+        <v>45169</v>
+      </c>
+      <c r="B273" s="12">
+        <v>-1.4</v>
+      </c>
+      <c r="C273" s="12">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="11">
+        <v>45199</v>
+      </c>
+      <c r="B274" s="12">
+        <v>-2.1</v>
+      </c>
+      <c r="C274" s="12">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="11">
+        <v>45230</v>
+      </c>
+      <c r="B275" s="12">
+        <v>-0.8</v>
+      </c>
+      <c r="C275" s="12">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="11">
+        <v>45260</v>
+      </c>
+      <c r="B276" s="12">
+        <v>-1.3</v>
+      </c>
+      <c r="C276" s="12">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="11">
+        <v>45291</v>
+      </c>
+      <c r="B277" s="12">
+        <v>-0.4</v>
+      </c>
+      <c r="C277" s="12">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -5864,45 +6003,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D93D5-01D5-47C9-AA32-3ABAE783D625}">
   <dimension ref="A1:M281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A266" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L278" sqref="L278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
@@ -14811,10 +14950,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E47741-BBFB-4D1A-92C1-568BD413F902}">
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="M259" sqref="M259"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="M267" sqref="M267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14837,10 +14976,10 @@
       <c r="A2" s="7">
         <v>36922</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="12">
         <v>-0.76</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="12">
         <v>25.81</v>
       </c>
     </row>
@@ -14848,10 +14987,10 @@
       <c r="A3" s="7">
         <v>36950</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="12">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>26.18</v>
       </c>
     </row>
@@ -14859,10 +14998,10 @@
       <c r="A4" s="7">
         <v>36981</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="12">
         <v>-0.37</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="12">
         <v>26.86</v>
       </c>
     </row>
@@ -14870,10 +15009,10 @@
       <c r="A5" s="7">
         <v>37011</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="12">
         <v>27.24</v>
       </c>
     </row>
@@ -14881,10 +15020,10 @@
       <c r="A6" s="7">
         <v>37042</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="12">
         <v>-0.46</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="12">
         <v>27.42</v>
       </c>
     </row>
@@ -14892,10 +15031,10 @@
       <c r="A7" s="7">
         <v>37072</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="12">
         <v>-0.16</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="12">
         <v>27.55</v>
       </c>
     </row>
@@ -14903,10 +15042,10 @@
       <c r="A8" s="7">
         <v>37103</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="12">
         <v>-0.11</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="12">
         <v>27.19</v>
       </c>
     </row>
@@ -14914,10 +15053,10 @@
       <c r="A9" s="7">
         <v>37134</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="12">
         <v>-0.09</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="12">
         <v>26.81</v>
       </c>
     </row>
@@ -14925,10 +15064,10 @@
       <c r="A10" s="7">
         <v>37164</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>-0.19</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="12">
         <v>26.58</v>
       </c>
     </row>
@@ -14936,10 +15075,10 @@
       <c r="A11" s="7">
         <v>37195</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="12">
         <v>-0.25</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="12">
         <v>26.52</v>
       </c>
     </row>
@@ -14947,10 +15086,10 @@
       <c r="A12" s="7">
         <v>37225</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="12">
         <v>-0.48</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="12">
         <v>26.35</v>
       </c>
     </row>
@@ -14958,10 +15097,10 @@
       <c r="A13" s="7">
         <v>37256</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="12">
         <v>-0.53</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="12">
         <v>26.11</v>
       </c>
     </row>
@@ -14969,10 +15108,10 @@
       <c r="A14" s="7">
         <v>37287</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="12">
         <v>26.36</v>
       </c>
     </row>
@@ -14980,10 +15119,10 @@
       <c r="A15" s="7">
         <v>37315</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="12">
         <v>0.03</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="12">
         <v>26.76</v>
       </c>
     </row>
@@ -14991,10 +15130,10 @@
       <c r="A16" s="7">
         <v>37346</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="12">
         <v>-0.06</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="12">
         <v>27.17</v>
       </c>
     </row>
@@ -15002,10 +15141,10 @@
       <c r="A17" s="7">
         <v>37376</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="12">
         <v>0.03</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="12">
         <v>27.84</v>
       </c>
     </row>
@@ -15013,10 +15152,10 @@
       <c r="A18" s="7">
         <v>37407</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="12">
         <v>0.19</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="12">
         <v>28.07</v>
       </c>
     </row>
@@ -15024,10 +15163,10 @@
       <c r="A19" s="7">
         <v>37437</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="12">
         <v>0.6</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="12">
         <v>28.31</v>
       </c>
     </row>
@@ -15035,10 +15174,10 @@
       <c r="A20" s="7">
         <v>37468</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="12">
         <v>27.88</v>
       </c>
     </row>
@@ -15046,10 +15185,10 @@
       <c r="A21" s="7">
         <v>37499</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="12">
         <v>0.66</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="12">
         <v>27.56</v>
       </c>
     </row>
@@ -15057,10 +15196,10 @@
       <c r="A22" s="7">
         <v>37529</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="12">
         <v>0.85</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="12">
         <v>27.61</v>
       </c>
     </row>
@@ -15068,10 +15207,10 @@
       <c r="A23" s="7">
         <v>37560</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="12">
         <v>1.02</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="12">
         <v>27.79</v>
       </c>
     </row>
@@ -15079,10 +15218,10 @@
       <c r="A24" s="7">
         <v>37590</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="12">
         <v>1.2</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="12">
         <v>28.03</v>
       </c>
     </row>
@@ -15090,10 +15229,10 @@
       <c r="A25" s="7">
         <v>37621</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="12">
         <v>1.3</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="12">
         <v>27.94</v>
       </c>
     </row>
@@ -15101,10 +15240,10 @@
       <c r="A26" s="7">
         <v>37652</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="12">
         <v>0.88</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="12">
         <v>27.45</v>
       </c>
     </row>
@@ -15112,10 +15251,10 @@
       <c r="A27" s="7">
         <v>37680</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="12">
         <v>0.65</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="12">
         <v>27.39</v>
       </c>
     </row>
@@ -15123,10 +15262,10 @@
       <c r="A28" s="7">
         <v>37711</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="12">
         <v>0.5</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="12">
         <v>27.73</v>
       </c>
     </row>
@@ -15134,10 +15273,10 @@
       <c r="A29" s="7">
         <v>37741</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="12">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="12">
         <v>27.67</v>
       </c>
     </row>
@@ -15145,10 +15284,10 @@
       <c r="A30" s="7">
         <v>37772</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="12">
         <v>-0.6</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="12">
         <v>27.28</v>
       </c>
     </row>
@@ -15156,10 +15295,10 @@
       <c r="A31" s="7">
         <v>37802</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="12">
         <v>-0.34</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="12">
         <v>27.37</v>
       </c>
     </row>
@@ -15167,10 +15306,10 @@
       <c r="A32" s="7">
         <v>37833</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="12">
         <v>0.04</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="12">
         <v>27.34</v>
       </c>
     </row>
@@ -15178,10 +15317,10 @@
       <c r="A33" s="7">
         <v>37864</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="12">
         <v>0.04</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="12">
         <v>26.94</v>
       </c>
     </row>
@@ -15189,10 +15328,10 @@
       <c r="A34" s="7">
         <v>37894</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="12">
         <v>0.18</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="12">
         <v>26.94</v>
       </c>
     </row>
@@ -15200,10 +15339,10 @@
       <c r="A35" s="7">
         <v>37925</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="12">
         <v>0.42</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="12">
         <v>27.19</v>
       </c>
     </row>
@@ -15211,10 +15350,10 @@
       <c r="A36" s="7">
         <v>37955</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="12">
         <v>0.21</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="12">
         <v>27.03</v>
       </c>
     </row>
@@ -15222,10 +15361,10 @@
       <c r="A37" s="7">
         <v>37986</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="12">
         <v>0.34</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="12">
         <v>26.98</v>
       </c>
     </row>
@@ -15233,10 +15372,10 @@
       <c r="A38" s="7">
         <v>38017</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="12">
         <v>0.22</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="12">
         <v>26.78</v>
       </c>
     </row>
@@ -15244,10 +15383,10 @@
       <c r="A39" s="7">
         <v>38046</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="12">
         <v>0.16</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="12">
         <v>26.9</v>
       </c>
     </row>
@@ -15255,10 +15394,10 @@
       <c r="A40" s="7">
         <v>38077</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="12">
         <v>-0.18</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="12">
         <v>27.05</v>
       </c>
     </row>
@@ -15266,10 +15405,10 @@
       <c r="A41" s="7">
         <v>38107</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="12">
         <v>-0.04</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="12">
         <v>27.76</v>
       </c>
     </row>
@@ -15277,10 +15416,10 @@
       <c r="A42" s="7">
         <v>38138</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="12">
         <v>27.95</v>
       </c>
     </row>
@@ -15288,10 +15427,10 @@
       <c r="A43" s="7">
         <v>38168</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="12">
         <v>0</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="12">
         <v>27.7</v>
       </c>
     </row>
@@ -15299,10 +15438,10 @@
       <c r="A44" s="7">
         <v>38199</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="12">
         <v>0.47</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="12">
         <v>27.76</v>
       </c>
     </row>
@@ -15310,10 +15449,10 @@
       <c r="A45" s="7">
         <v>38230</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="12">
         <v>0.61</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="12">
         <v>27.51</v>
       </c>
     </row>
@@ -15321,10 +15460,10 @@
       <c r="A46" s="7">
         <v>38260</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="12">
         <v>0.67</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="12">
         <v>27.43</v>
       </c>
     </row>
@@ -15332,10 +15471,10 @@
       <c r="A47" s="7">
         <v>38291</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="12">
         <v>0.64</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="12">
         <v>27.41</v>
       </c>
     </row>
@@ -15343,10 +15482,10 @@
       <c r="A48" s="7">
         <v>38321</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="12">
         <v>0.59</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="12">
         <v>27.41</v>
       </c>
     </row>
@@ -15354,10 +15493,10 @@
       <c r="A49" s="7">
         <v>38352</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="12">
         <v>0.63</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="12">
         <v>27.28</v>
       </c>
     </row>
@@ -15365,10 +15504,10 @@
       <c r="A50" s="7">
         <v>38383</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="12">
         <v>0.61</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="12">
         <v>27.18</v>
       </c>
     </row>
@@ -15376,10 +15515,10 @@
       <c r="A51" s="7">
         <v>38411</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="12">
         <v>0.24</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="12">
         <v>26.97</v>
       </c>
     </row>
@@ -15387,10 +15526,10 @@
       <c r="A52" s="7">
         <v>38442</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="12">
         <v>0.27</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="12">
         <v>27.5</v>
       </c>
     </row>
@@ -15398,10 +15537,10 @@
       <c r="A53" s="7">
         <v>38472</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="12">
         <v>0.13</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="12">
         <v>27.93</v>
       </c>
     </row>
@@ -15409,10 +15548,10 @@
       <c r="A54" s="7">
         <v>38503</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="12">
         <v>0.22</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="12">
         <v>28.1</v>
       </c>
     </row>
@@ -15420,10 +15559,10 @@
       <c r="A55" s="7">
         <v>38533</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="12">
         <v>0.2</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="12">
         <v>27.91</v>
       </c>
     </row>
@@ -15431,10 +15570,10 @@
       <c r="A56" s="7">
         <v>38564</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="12">
         <v>0.08</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="12">
         <v>27.37</v>
       </c>
     </row>
@@ -15442,10 +15581,10 @@
       <c r="A57" s="7">
         <v>38595</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="12">
         <v>0.06</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="12">
         <v>26.96</v>
       </c>
     </row>
@@ -15453,10 +15592,10 @@
       <c r="A58" s="7">
         <v>38625</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="12">
         <v>-0.12</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="12">
         <v>26.64</v>
       </c>
     </row>
@@ -15464,10 +15603,10 @@
       <c r="A59" s="7">
         <v>38656</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="12">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="12">
         <v>26.7</v>
       </c>
     </row>
@@ -15475,10 +15614,10 @@
       <c r="A60" s="7">
         <v>38686</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="12">
         <v>-0.54</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="12">
         <v>26.29</v>
       </c>
     </row>
@@ -15486,10 +15625,10 @@
       <c r="A61" s="7">
         <v>38717</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="12">
         <v>-0.8</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="12">
         <v>25.84</v>
       </c>
     </row>
@@ -15497,10 +15636,10 @@
       <c r="A62" s="7">
         <v>38748</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="12">
         <v>-0.93</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="12">
         <v>25.64</v>
       </c>
     </row>
@@ -15508,10 +15647,10 @@
       <c r="A63" s="7">
         <v>38776</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="12">
         <v>-0.67</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="12">
         <v>26.06</v>
       </c>
     </row>
@@ -15519,10 +15658,10 @@
       <c r="A64" s="7">
         <v>38807</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="12">
         <v>-0.66</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="12">
         <v>26.57</v>
       </c>
     </row>
@@ -15530,10 +15669,10 @@
       <c r="A65" s="7">
         <v>38837</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="12">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="12">
         <v>27.52</v>
       </c>
     </row>
@@ -15541,10 +15680,10 @@
       <c r="A66" s="7">
         <v>38868</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="12">
         <v>-0.06</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="12">
         <v>27.82</v>
       </c>
     </row>
@@ -15552,10 +15691,10 @@
       <c r="A67" s="7">
         <v>38898</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="12">
         <v>0.08</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="12">
         <v>27.79</v>
       </c>
     </row>
@@ -15563,10 +15702,10 @@
       <c r="A68" s="7">
         <v>38929</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="12">
         <v>-0.01</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="12">
         <v>27.28</v>
       </c>
     </row>
@@ -15574,10 +15713,10 @@
       <c r="A69" s="7">
         <v>38960</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="12">
         <v>0.33</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="12">
         <v>27.23</v>
       </c>
     </row>
@@ -15585,10 +15724,10 @@
       <c r="A70" s="7">
         <v>38990</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="12">
         <v>0.53</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="12">
         <v>27.29</v>
       </c>
     </row>
@@ -15596,10 +15735,10 @@
       <c r="A71" s="7">
         <v>39021</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="12">
         <v>0.65</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="12">
         <v>27.42</v>
       </c>
     </row>
@@ -15607,10 +15746,10 @@
       <c r="A72" s="7">
         <v>39051</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="12">
         <v>0.85</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="12">
         <v>27.67</v>
       </c>
     </row>
@@ -15618,10 +15757,10 @@
       <c r="A73" s="7">
         <v>39082</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="12">
         <v>27.74</v>
       </c>
     </row>
@@ -15629,10 +15768,10 @@
       <c r="A74" s="7">
         <v>39113</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="12">
         <v>0.75</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="12">
         <v>27.31</v>
       </c>
     </row>
@@ -15640,10 +15779,10 @@
       <c r="A75" s="7">
         <v>39141</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="12">
         <v>0.11</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="12">
         <v>26.84</v>
       </c>
     </row>
@@ -15651,10 +15790,10 @@
       <c r="A76" s="7">
         <v>39172</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="12">
         <v>-0.08</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="12">
         <v>27.16</v>
       </c>
     </row>
@@ -15662,10 +15801,10 @@
       <c r="A77" s="7">
         <v>39202</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="12">
         <v>-0.1</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="12">
         <v>27.7</v>
       </c>
     </row>
@@ -15673,10 +15812,10 @@
       <c r="A78" s="7">
         <v>39233</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="12">
         <v>-0.43</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="12">
         <v>27.45</v>
       </c>
     </row>
@@ -15684,10 +15823,10 @@
       <c r="A79" s="7">
         <v>39263</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="12">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="12">
         <v>27.57</v>
       </c>
     </row>
@@ -15695,10 +15834,10 @@
       <c r="A80" s="7">
         <v>39294</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="12">
         <v>-0.41</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="12">
         <v>26.89</v>
       </c>
     </row>
@@ -15706,10 +15845,10 @@
       <c r="A81" s="7">
         <v>39325</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="12">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="12">
         <v>26.32</v>
       </c>
     </row>
@@ -15717,10 +15856,10 @@
       <c r="A82" s="7">
         <v>39355</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="12">
         <v>-0.86</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="12">
         <v>25.9</v>
       </c>
     </row>
@@ -15728,10 +15867,10 @@
       <c r="A83" s="7">
         <v>39386</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="12">
         <v>-1.19</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="12">
         <v>25.58</v>
       </c>
     </row>
@@ -15739,10 +15878,10 @@
       <c r="A84" s="7">
         <v>39416</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="12">
         <v>-1.42</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="12">
         <v>25.4</v>
       </c>
     </row>
@@ -15750,10 +15889,10 @@
       <c r="A85" s="7">
         <v>39447</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="12">
         <v>-1.18</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="12">
         <v>25.47</v>
       </c>
     </row>
@@ -15761,10 +15900,10 @@
       <c r="A86" s="7">
         <v>39478</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="12">
         <v>-1.59</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="12">
         <v>24.97</v>
       </c>
     </row>
@@ -15772,10 +15911,10 @@
       <c r="A87" s="7">
         <v>39507</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="12">
         <v>-1.49</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="12">
         <v>25.25</v>
       </c>
     </row>
@@ -15783,10 +15922,10 @@
       <c r="A88" s="7">
         <v>39538</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="12">
         <v>-0.94</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="12">
         <v>26.3</v>
       </c>
     </row>
@@ -15794,10 +15933,10 @@
       <c r="A89" s="7">
         <v>39568</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="12">
         <v>-0.85</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="12">
         <v>26.95</v>
       </c>
     </row>
@@ -15805,10 +15944,10 @@
       <c r="A90" s="7">
         <v>39599</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="12">
         <v>-0.69</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="12">
         <v>27.19</v>
       </c>
     </row>
@@ -15816,10 +15955,10 @@
       <c r="A91" s="7">
         <v>39629</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="12">
         <v>-0.64</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="12">
         <v>27.07</v>
       </c>
     </row>
@@ -15827,10 +15966,10 @@
       <c r="A92" s="7">
         <v>39660</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="12">
         <v>-0.27</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="12">
         <v>27.03</v>
       </c>
     </row>
@@ -15838,10 +15977,10 @@
       <c r="A93" s="7">
         <v>39691</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="12">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="12">
         <v>26.83</v>
       </c>
     </row>
@@ -15849,10 +15988,10 @@
       <c r="A94" s="7">
         <v>39721</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="12">
         <v>-0.24</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="12">
         <v>26.52</v>
       </c>
     </row>
@@ -15860,10 +15999,10 @@
       <c r="A95" s="7">
         <v>39752</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="12">
         <v>-0.2</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="12">
         <v>26.57</v>
       </c>
     </row>
@@ -15871,10 +16010,10 @@
       <c r="A96" s="7">
         <v>39782</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="12">
         <v>-0.35</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="12">
         <v>26.47</v>
       </c>
     </row>
@@ -15882,10 +16021,10 @@
       <c r="A97" s="7">
         <v>39813</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="12">
         <v>-0.82</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="12">
         <v>25.83</v>
       </c>
     </row>
@@ -15893,10 +16032,10 @@
       <c r="A98" s="7">
         <v>39844</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="12">
         <v>-0.8</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="12">
         <v>25.76</v>
       </c>
     </row>
@@ -15904,10 +16043,10 @@
       <c r="A99" s="7">
         <v>39872</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="12">
         <v>-0.6</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="12">
         <v>26.13</v>
       </c>
     </row>
@@ -15915,10 +16054,10 @@
       <c r="A100" s="7">
         <v>39903</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="12">
         <v>-0.62</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="12">
         <v>26.61</v>
       </c>
     </row>
@@ -15926,10 +16065,10 @@
       <c r="A101" s="7">
         <v>39933</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="12">
         <v>-0.16</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="12">
         <v>27.65</v>
       </c>
     </row>
@@ -15937,10 +16076,10 @@
       <c r="A102" s="7">
         <v>39964</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="12">
         <v>0.18</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="12">
         <v>28.06</v>
       </c>
     </row>
@@ -15948,10 +16087,10 @@
       <c r="A103" s="7">
         <v>39994</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="12">
         <v>0.42</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="12">
         <v>28.13</v>
       </c>
     </row>
@@ -15959,10 +16098,10 @@
       <c r="A104" s="7">
         <v>40025</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="12">
         <v>0.53</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="12">
         <v>27.83</v>
       </c>
     </row>
@@ -15970,10 +16109,10 @@
       <c r="A105" s="7">
         <v>40056</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="12">
         <v>0.69</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="12">
         <v>27.59</v>
       </c>
     </row>
@@ -15981,10 +16120,10 @@
       <c r="A106" s="7">
         <v>40086</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="12">
         <v>0.71</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="12">
         <v>27.48</v>
       </c>
     </row>
@@ -15992,10 +16131,10 @@
       <c r="A107" s="7">
         <v>40117</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="12">
         <v>0.92</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="12">
         <v>27.69</v>
       </c>
     </row>
@@ -16003,10 +16142,10 @@
       <c r="A108" s="7">
         <v>40147</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="12">
         <v>1.43</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="12">
         <v>28.25</v>
       </c>
     </row>
@@ -16014,10 +16153,10 @@
       <c r="A109" s="7">
         <v>40178</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="12">
         <v>1.68</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="12">
         <v>28.33</v>
       </c>
     </row>
@@ -16025,10 +16164,10 @@
       <c r="A110" s="7">
         <v>40209</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="12">
         <v>1.53</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="12">
         <v>28.1</v>
       </c>
     </row>
@@ -16036,10 +16175,10 @@
       <c r="A111" s="7">
         <v>40237</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="12">
         <v>1.19</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="12">
         <v>27.92</v>
       </c>
     </row>
@@ -16047,10 +16186,10 @@
       <c r="A112" s="7">
         <v>40268</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="12">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="12">
         <v>28.34</v>
       </c>
     </row>
@@ -16058,10 +16197,10 @@
       <c r="A113" s="7">
         <v>40298</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="12">
         <v>0.59</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="12">
         <v>28.4</v>
       </c>
     </row>
@@ -16069,10 +16208,10 @@
       <c r="A114" s="7">
         <v>40329</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="12">
         <v>-0.11</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="12">
         <v>27.77</v>
       </c>
     </row>
@@ -16080,10 +16219,10 @@
       <c r="A115" s="7">
         <v>40359</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="12">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="12">
         <v>27.16</v>
       </c>
     </row>
@@ -16091,10 +16230,10 @@
       <c r="A116" s="7">
         <v>40390</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="12">
         <v>-0.92</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="12">
         <v>26.38</v>
       </c>
     </row>
@@ -16102,10 +16241,10 @@
       <c r="A117" s="7">
         <v>40421</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="12">
         <v>-1.21</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="12">
         <v>25.69</v>
       </c>
     </row>
@@ -16113,10 +16252,10 @@
       <c r="A118" s="7">
         <v>40451</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="12">
         <v>-1.31</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="12">
         <v>25.46</v>
       </c>
     </row>
@@ -16124,10 +16263,10 @@
       <c r="A119" s="7">
         <v>40482</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="12">
         <v>-1.41</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="12">
         <v>25.36</v>
       </c>
     </row>
@@ -16135,10 +16274,10 @@
       <c r="A120" s="7">
         <v>40512</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="12">
         <v>-1.44</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="12">
         <v>25.38</v>
       </c>
     </row>
@@ -16146,10 +16285,10 @@
       <c r="A121" s="7">
         <v>40543</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="12">
         <v>-1.21</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="12">
         <v>25.44</v>
       </c>
     </row>
@@ -16157,10 +16296,10 @@
       <c r="A122" s="7">
         <v>40574</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="12">
         <v>-1.48</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="12">
         <v>25.09</v>
       </c>
     </row>
@@ -16168,10 +16307,10 @@
       <c r="A123" s="7">
         <v>40602</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="12">
         <v>-1.19</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="12">
         <v>25.55</v>
       </c>
     </row>
@@ -16179,10 +16318,10 @@
       <c r="A124" s="7">
         <v>40633</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="12">
         <v>-0.83</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="12">
         <v>26.4</v>
       </c>
     </row>
@@ -16190,10 +16329,10 @@
       <c r="A125" s="7">
         <v>40663</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="12">
         <v>-0.76</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="12">
         <v>27.05</v>
       </c>
     </row>
@@ -16201,10 +16340,10 @@
       <c r="A126" s="7">
         <v>40694</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="12">
         <v>-0.39</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="12">
         <v>27.49</v>
       </c>
     </row>
@@ -16212,10 +16351,10 @@
       <c r="A127" s="7">
         <v>40724</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="12">
         <v>-0.31</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="12">
         <v>27.4</v>
       </c>
     </row>
@@ -16223,10 +16362,10 @@
       <c r="A128" s="7">
         <v>40755</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="12">
         <v>-0.19</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="12">
         <v>27.11</v>
       </c>
     </row>
@@ -16234,10 +16373,10 @@
       <c r="A129" s="7">
         <v>40786</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="12">
         <v>-0.42</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="12">
         <v>26.48</v>
       </c>
     </row>
@@ -16245,10 +16384,10 @@
       <c r="A130" s="7">
         <v>40816</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="12">
         <v>-0.67</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="12">
         <v>26.09</v>
       </c>
     </row>
@@ -16256,10 +16395,10 @@
       <c r="A131" s="7">
         <v>40847</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="12">
         <v>-0.71</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="12">
         <v>26.06</v>
       </c>
     </row>
@@ -16267,10 +16406,10 @@
       <c r="A132" s="7">
         <v>40877</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="12">
         <v>-0.98</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="12">
         <v>25.85</v>
       </c>
     </row>
@@ -16278,10 +16417,10 @@
       <c r="A133" s="7">
         <v>40908</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="12">
         <v>-0.99</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C133" s="12">
         <v>25.66</v>
       </c>
     </row>
@@ -16289,10 +16428,10 @@
       <c r="A134" s="7">
         <v>40939</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="12">
         <v>-0.65</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="12">
         <v>25.91</v>
       </c>
     </row>
@@ -16300,10 +16439,10 @@
       <c r="A135" s="7">
         <v>40968</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="12">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="12">
         <v>26.18</v>
       </c>
     </row>
@@ -16311,10 +16450,10 @@
       <c r="A136" s="7">
         <v>40999</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="12">
         <v>-0.44</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C136" s="12">
         <v>26.79</v>
       </c>
     </row>
@@ -16322,10 +16461,10 @@
       <c r="A137" s="7">
         <v>41029</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="12">
         <v>-0.51</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C137" s="12">
         <v>27.29</v>
       </c>
     </row>
@@ -16333,10 +16472,10 @@
       <c r="A138" s="7">
         <v>41060</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="12">
         <v>-0.19</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="12">
         <v>27.69</v>
       </c>
     </row>
@@ -16344,10 +16483,10 @@
       <c r="A139" s="7">
         <v>41090</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="12">
         <v>0.24</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="12">
         <v>27.95</v>
       </c>
     </row>
@@ -16355,10 +16494,10 @@
       <c r="A140" s="7">
         <v>41121</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="12">
         <v>0.27</v>
       </c>
-      <c r="C140" s="9">
+      <c r="C140" s="12">
         <v>27.57</v>
       </c>
     </row>
@@ -16366,10 +16505,10 @@
       <c r="A141" s="7">
         <v>41152</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="12">
         <v>0.68</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C141" s="12">
         <v>27.58</v>
       </c>
     </row>
@@ -16377,10 +16516,10 @@
       <c r="A142" s="7">
         <v>41182</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="12">
         <v>0.44</v>
       </c>
-      <c r="C142" s="9">
+      <c r="C142" s="12">
         <v>27.2</v>
       </c>
     </row>
@@ -16388,10 +16527,10 @@
       <c r="A143" s="7">
         <v>41213</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="12">
         <v>0.36</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C143" s="12">
         <v>27.13</v>
       </c>
     </row>
@@ -16399,10 +16538,10 @@
       <c r="A144" s="7">
         <v>41243</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="12">
         <v>0.5</v>
       </c>
-      <c r="C144" s="9">
+      <c r="C144" s="12">
         <v>27.32</v>
       </c>
     </row>
@@ -16410,10 +16549,10 @@
       <c r="A145" s="7">
         <v>41274</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="12">
         <v>-0.47</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C145" s="12">
         <v>26.18</v>
       </c>
     </row>
@@ -16421,10 +16560,10 @@
       <c r="A146" s="7">
         <v>41305</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="12">
         <v>-0.48</v>
       </c>
-      <c r="C146" s="9">
+      <c r="C146" s="12">
         <v>26.09</v>
       </c>
     </row>
@@ -16432,10 +16571,10 @@
       <c r="A147" s="7">
         <v>41333</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="12">
         <v>-0.48</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C147" s="12">
         <v>26.25</v>
       </c>
     </row>
@@ -16443,10 +16582,10 @@
       <c r="A148" s="7">
         <v>41364</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="12">
         <v>-0.22</v>
       </c>
-      <c r="C148" s="9">
+      <c r="C148" s="12">
         <v>27.02</v>
       </c>
     </row>
@@ -16454,10 +16593,10 @@
       <c r="A149" s="7">
         <v>41394</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="12">
         <v>0.11</v>
       </c>
-      <c r="C149" s="9">
+      <c r="C149" s="12">
         <v>27.92</v>
       </c>
     </row>
@@ -16465,10 +16604,10 @@
       <c r="A150" s="7">
         <v>41425</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="12">
         <v>-0.3</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C150" s="12">
         <v>27.58</v>
       </c>
     </row>
@@ -16476,10 +16615,10 @@
       <c r="A151" s="7">
         <v>41455</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="12">
         <v>-0.34</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C151" s="12">
         <v>27.37</v>
       </c>
     </row>
@@ -16487,10 +16626,10 @@
       <c r="A152" s="7">
         <v>41486</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="12">
         <v>-0.26</v>
       </c>
-      <c r="C152" s="9">
+      <c r="C152" s="12">
         <v>27.04</v>
       </c>
     </row>
@@ -16498,10 +16637,10 @@
       <c r="A153" s="7">
         <v>41517</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="12">
         <v>-0.47</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C153" s="12">
         <v>26.43</v>
       </c>
     </row>
@@ -16509,10 +16648,10 @@
       <c r="A154" s="7">
         <v>41547</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="12">
         <v>0.05</v>
       </c>
-      <c r="C154" s="9">
+      <c r="C154" s="12">
         <v>26.82</v>
       </c>
     </row>
@@ -16520,10 +16659,10 @@
       <c r="A155" s="7">
         <v>41578</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="12">
         <v>-0.15</v>
       </c>
-      <c r="C155" s="9">
+      <c r="C155" s="12">
         <v>26.62</v>
       </c>
     </row>
@@ -16531,10 +16670,10 @@
       <c r="A156" s="7">
         <v>41608</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="12">
         <v>-0.09</v>
       </c>
-      <c r="C156" s="9">
+      <c r="C156" s="12">
         <v>26.73</v>
       </c>
     </row>
@@ -16542,10 +16681,10 @@
       <c r="A157" s="7">
         <v>41639</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="12">
         <v>-0.18</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="12">
         <v>26.47</v>
       </c>
     </row>
@@ -16553,10 +16692,10 @@
       <c r="A158" s="7">
         <v>41670</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="12">
         <v>-0.49</v>
       </c>
-      <c r="C158" s="9">
+      <c r="C158" s="12">
         <v>26.07</v>
       </c>
     </row>
@@ -16564,10 +16703,10 @@
       <c r="A159" s="7">
         <v>41698</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="12">
         <v>-0.85</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C159" s="12">
         <v>25.89</v>
       </c>
     </row>
@@ -16575,10 +16714,10 @@
       <c r="A160" s="7">
         <v>41729</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="12">
         <v>-0.34</v>
       </c>
-      <c r="C160" s="9">
+      <c r="C160" s="12">
         <v>26.89</v>
       </c>
     </row>
@@ -16586,10 +16725,10 @@
       <c r="A161" s="7">
         <v>41759</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="12">
         <v>0.18</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C161" s="12">
         <v>27.99</v>
       </c>
     </row>
@@ -16597,10 +16736,10 @@
       <c r="A162" s="7">
         <v>41790</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="12">
         <v>0.45</v>
       </c>
-      <c r="C162" s="9">
+      <c r="C162" s="12">
         <v>28.33</v>
       </c>
     </row>
@@ -16608,10 +16747,10 @@
       <c r="A163" s="7">
         <v>41820</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="12">
         <v>0.47</v>
       </c>
-      <c r="C163" s="9">
+      <c r="C163" s="12">
         <v>28.18</v>
       </c>
     </row>
@@ -16619,10 +16758,10 @@
       <c r="A164" s="7">
         <v>41851</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="12">
         <v>-0.03</v>
       </c>
-      <c r="C164" s="9">
+      <c r="C164" s="12">
         <v>27.27</v>
       </c>
     </row>
@@ -16630,10 +16769,10 @@
       <c r="A165" s="7">
         <v>41882</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="12">
         <v>-0.01</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C165" s="12">
         <v>26.89</v>
       </c>
     </row>
@@ -16641,10 +16780,10 @@
       <c r="A166" s="7">
         <v>41912</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="12">
         <v>0.31</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="12">
         <v>27.07</v>
       </c>
     </row>
@@ -16652,10 +16791,10 @@
       <c r="A167" s="7">
         <v>41943</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="12">
         <v>0.43</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="12">
         <v>27.2</v>
       </c>
     </row>
@@ -16663,10 +16802,10 @@
       <c r="A168" s="7">
         <v>41973</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="12">
         <v>0.75</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="12">
         <v>27.57</v>
       </c>
     </row>
@@ -16674,10 +16813,10 @@
       <c r="A169" s="7">
         <v>42004</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="12">
         <v>0.63</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="12">
         <v>27.28</v>
       </c>
     </row>
@@ -16685,10 +16824,10 @@
       <c r="A170" s="7">
         <v>42035</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="12">
         <v>0.51</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="12">
         <v>27.07</v>
       </c>
     </row>
@@ -16696,10 +16835,10 @@
       <c r="A171" s="7">
         <v>42063</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="12">
         <v>0.75</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="12">
         <v>27.48</v>
       </c>
     </row>
@@ -16707,10 +16846,10 @@
       <c r="A172" s="7">
         <v>42094</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="12">
         <v>0.44</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="12">
         <v>27.68</v>
       </c>
     </row>
@@ -16718,10 +16857,10 @@
       <c r="A173" s="7">
         <v>42124</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="12">
         <v>0.82</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="12">
         <v>28.63</v>
       </c>
     </row>
@@ -16729,10 +16868,10 @@
       <c r="A174" s="7">
         <v>42155</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="12">
         <v>0.83</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="12">
         <v>28.71</v>
       </c>
     </row>
@@ -16740,10 +16879,10 @@
       <c r="A175" s="7">
         <v>42185</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="12">
         <v>1.02</v>
       </c>
-      <c r="C175" s="9">
+      <c r="C175" s="12">
         <v>28.73</v>
       </c>
     </row>
@@ -16751,10 +16890,10 @@
       <c r="A176" s="7">
         <v>42216</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="12">
         <v>1.26</v>
       </c>
-      <c r="C176" s="9">
+      <c r="C176" s="12">
         <v>28.56</v>
       </c>
     </row>
@@ -16762,10 +16901,10 @@
       <c r="A177" s="7">
         <v>42247</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="12">
         <v>1.65</v>
       </c>
-      <c r="C177" s="9">
+      <c r="C177" s="12">
         <v>28.55</v>
       </c>
     </row>
@@ -16773,10 +16912,10 @@
       <c r="A178" s="7">
         <v>42277</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="12">
         <v>1.79</v>
       </c>
-      <c r="C178" s="9">
+      <c r="C178" s="12">
         <v>28.55</v>
       </c>
     </row>
@@ -16784,10 +16923,10 @@
       <c r="A179" s="7">
         <v>42308</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="12">
         <v>2.21</v>
       </c>
-      <c r="C179" s="9">
+      <c r="C179" s="12">
         <v>28.98</v>
       </c>
     </row>
@@ -16795,10 +16934,10 @@
       <c r="A180" s="7">
         <v>42338</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="12">
         <v>2.72</v>
       </c>
-      <c r="C180" s="9">
+      <c r="C180" s="12">
         <v>29.54</v>
       </c>
     </row>
@@ -16806,10 +16945,10 @@
       <c r="A181" s="7">
         <v>42369</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="12">
         <v>2.39</v>
       </c>
-      <c r="C181" s="9">
+      <c r="C181" s="12">
         <v>29.03</v>
       </c>
     </row>
@@ -16817,10 +16956,10 @@
       <c r="A182" s="7">
         <v>42400</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="12">
         <v>2.4700000000000002</v>
       </c>
-      <c r="C182" s="9">
+      <c r="C182" s="12">
         <v>29.04</v>
       </c>
     </row>
@@ -16828,10 +16967,10 @@
       <c r="A183" s="7">
         <v>42429</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="12">
         <v>2.23</v>
       </c>
-      <c r="C183" s="9">
+      <c r="C183" s="12">
         <v>28.97</v>
       </c>
     </row>
@@ -16839,10 +16978,10 @@
       <c r="A184" s="7">
         <v>42460</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="12">
         <v>1.61</v>
       </c>
-      <c r="C184" s="9">
+      <c r="C184" s="12">
         <v>28.85</v>
       </c>
     </row>
@@ -16850,10 +16989,10 @@
       <c r="A185" s="7">
         <v>42490</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="12">
         <v>0.98</v>
       </c>
-      <c r="C185" s="9">
+      <c r="C185" s="12">
         <v>28.79</v>
       </c>
     </row>
@@ -16861,10 +17000,10 @@
       <c r="A186" s="7">
         <v>42521</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="12">
         <v>0.27</v>
       </c>
-      <c r="C186" s="9">
+      <c r="C186" s="12">
         <v>28.15</v>
       </c>
     </row>
@@ -16872,10 +17011,10 @@
       <c r="A187" s="7">
         <v>42551</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="12">
         <v>0.02</v>
       </c>
-      <c r="C187" s="9">
+      <c r="C187" s="12">
         <v>27.73</v>
       </c>
     </row>
@@ -16883,10 +17022,10 @@
       <c r="A188" s="7">
         <v>42582</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="12">
         <v>-0.42</v>
       </c>
-      <c r="C188" s="9">
+      <c r="C188" s="12">
         <v>26.88</v>
       </c>
     </row>
@@ -16894,10 +17033,10 @@
       <c r="A189" s="7">
         <v>42613</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="12">
         <v>-0.49</v>
       </c>
-      <c r="C189" s="9">
+      <c r="C189" s="12">
         <v>26.41</v>
       </c>
     </row>
@@ -16905,10 +17044,10 @@
       <c r="A190" s="7">
         <v>42643</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="12">
         <v>-0.43</v>
       </c>
-      <c r="C190" s="9">
+      <c r="C190" s="12">
         <v>26.34</v>
       </c>
     </row>
@@ -16916,10 +17055,10 @@
       <c r="A191" s="7">
         <v>42674</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="12">
         <v>-0.7</v>
       </c>
-      <c r="C191" s="9">
+      <c r="C191" s="12">
         <v>26.07</v>
       </c>
     </row>
@@ -16927,10 +17066,10 @@
       <c r="A192" s="7">
         <v>42704</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="12">
         <v>-0.64</v>
       </c>
-      <c r="C192" s="9">
+      <c r="C192" s="12">
         <v>26.18</v>
       </c>
     </row>
@@ -16938,10 +17077,10 @@
       <c r="A193" s="7">
         <v>42735</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="12">
         <v>-0.33</v>
       </c>
-      <c r="C193" s="9">
+      <c r="C193" s="12">
         <v>26.31</v>
       </c>
     </row>
@@ -16949,10 +17088,10 @@
       <c r="A194" s="7">
         <v>42766</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="12">
         <v>-0.26</v>
       </c>
-      <c r="C194" s="9">
+      <c r="C194" s="12">
         <v>26.3</v>
       </c>
     </row>
@@ -16960,10 +17099,10 @@
       <c r="A195" s="7">
         <v>42794</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="12">
         <v>0.1</v>
       </c>
-      <c r="C195" s="9">
+      <c r="C195" s="12">
         <v>26.83</v>
       </c>
     </row>
@@ -16971,10 +17110,10 @@
       <c r="A196" s="7">
         <v>42825</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="12">
         <v>0.21</v>
       </c>
-      <c r="C196" s="9">
+      <c r="C196" s="12">
         <v>27.44</v>
       </c>
     </row>
@@ -16982,10 +17121,10 @@
       <c r="A197" s="7">
         <v>42855</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="12">
         <v>0.36</v>
       </c>
-      <c r="C197" s="9">
+      <c r="C197" s="12">
         <v>28.17</v>
       </c>
     </row>
@@ -16993,10 +17132,10 @@
       <c r="A198" s="7">
         <v>42886</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="12">
         <v>0.42</v>
       </c>
-      <c r="C198" s="9">
+      <c r="C198" s="12">
         <v>28.3</v>
       </c>
     </row>
@@ -17004,10 +17143,10 @@
       <c r="A199" s="7">
         <v>42916</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="12">
         <v>0.39</v>
       </c>
-      <c r="C199" s="9">
+      <c r="C199" s="12">
         <v>28.1</v>
       </c>
     </row>
@@ -17015,10 +17154,10 @@
       <c r="A200" s="7">
         <v>42947</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C200" s="9">
+      <c r="C200" s="12">
         <v>27.58</v>
       </c>
     </row>
@@ -17026,10 +17165,10 @@
       <c r="A201" s="7">
         <v>42978</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="12">
         <v>-0.06</v>
       </c>
-      <c r="C201" s="9">
+      <c r="C201" s="12">
         <v>26.85</v>
       </c>
     </row>
@@ -17037,10 +17176,10 @@
       <c r="A202" s="7">
         <v>43008</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="12">
         <v>-0.32</v>
       </c>
-      <c r="C202" s="9">
+      <c r="C202" s="12">
         <v>26.44</v>
       </c>
     </row>
@@ -17048,10 +17187,10 @@
       <c r="A203" s="7">
         <v>43039</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="12">
         <v>-0.37</v>
       </c>
-      <c r="C203" s="9">
+      <c r="C203" s="12">
         <v>26.4</v>
       </c>
     </row>
@@ -17059,10 +17198,10 @@
       <c r="A204" s="7">
         <v>43069</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="12">
         <v>-0.91</v>
       </c>
-      <c r="C204" s="9">
+      <c r="C204" s="12">
         <v>25.91</v>
       </c>
     </row>
@@ -17070,10 +17209,10 @@
       <c r="A205" s="7">
         <v>43100</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="12">
         <v>-0.93</v>
       </c>
-      <c r="C205" s="9">
+      <c r="C205" s="12">
         <v>25.72</v>
       </c>
     </row>
@@ -17081,10 +17220,10 @@
       <c r="A206" s="7">
         <v>43131</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="12">
         <v>-0.7</v>
       </c>
-      <c r="C206" s="9">
+      <c r="C206" s="12">
         <v>25.87</v>
       </c>
     </row>
@@ -17092,10 +17231,10 @@
       <c r="A207" s="7">
         <v>43159</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="12">
         <v>-0.67</v>
       </c>
-      <c r="C207" s="9">
+      <c r="C207" s="12">
         <v>26.06</v>
       </c>
     </row>
@@ -17103,10 +17242,10 @@
       <c r="A208" s="7">
         <v>43190</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="12">
         <v>-0.73</v>
       </c>
-      <c r="C208" s="9">
+      <c r="C208" s="12">
         <v>26.5</v>
       </c>
     </row>
@@ -17114,10 +17253,10 @@
       <c r="A209" s="7">
         <v>43220</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="12">
         <v>-0.49</v>
       </c>
-      <c r="C209" s="9">
+      <c r="C209" s="12">
         <v>27.31</v>
       </c>
     </row>
@@ -17125,10 +17264,10 @@
       <c r="A210" s="7">
         <v>43251</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="12">
         <v>-0.11</v>
       </c>
-      <c r="C210" s="9">
+      <c r="C210" s="12">
         <v>27.77</v>
       </c>
     </row>
@@ -17136,10 +17275,10 @@
       <c r="A211" s="7">
         <v>43281</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="12">
         <v>0.15</v>
       </c>
-      <c r="C211" s="9">
+      <c r="C211" s="12">
         <v>27.86</v>
       </c>
     </row>
@@ -17147,10 +17286,10 @@
       <c r="A212" s="7">
         <v>43312</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="12">
         <v>0.22</v>
       </c>
-      <c r="C212" s="9">
+      <c r="C212" s="12">
         <v>27.52</v>
       </c>
     </row>
@@ -17158,10 +17297,10 @@
       <c r="A213" s="7">
         <v>43343</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C213" s="9">
+      <c r="C213" s="12">
         <v>27.18</v>
       </c>
     </row>
@@ -17169,10 +17308,10 @@
       <c r="A214" s="7">
         <v>43373</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="12">
         <v>0.33</v>
       </c>
-      <c r="C214" s="9">
+      <c r="C214" s="12">
         <v>27.1</v>
       </c>
     </row>
@@ -17180,10 +17319,10 @@
       <c r="A215" s="7">
         <v>43404</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="12">
         <v>0.86</v>
       </c>
-      <c r="C215" s="9">
+      <c r="C215" s="12">
         <v>27.63</v>
       </c>
     </row>
@@ -17191,10 +17330,10 @@
       <c r="A216" s="7">
         <v>43434</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="12">
         <v>0.86</v>
       </c>
-      <c r="C216" s="9">
+      <c r="C216" s="12">
         <v>27.69</v>
       </c>
     </row>
@@ -17202,10 +17341,10 @@
       <c r="A217" s="7">
         <v>43465</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="12">
         <v>0.9</v>
       </c>
-      <c r="C217" s="9">
+      <c r="C217" s="12">
         <v>27.54</v>
       </c>
     </row>
@@ -17213,10 +17352,10 @@
       <c r="A218" s="7">
         <v>43496</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="12">
         <v>0.67</v>
       </c>
-      <c r="C218" s="9">
+      <c r="C218" s="12">
         <v>27.24</v>
       </c>
     </row>
@@ -17224,10 +17363,10 @@
       <c r="A219" s="7">
         <v>43524</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="12">
         <v>0.71</v>
       </c>
-      <c r="C219" s="9">
+      <c r="C219" s="12">
         <v>27.44</v>
       </c>
     </row>
@@ -17235,10 +17374,10 @@
       <c r="A220" s="7">
         <v>43555</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="12">
         <v>0.97</v>
       </c>
-      <c r="C220" s="9">
+      <c r="C220" s="12">
         <v>28.21</v>
       </c>
     </row>
@@ -17246,10 +17385,10 @@
       <c r="A221" s="7">
         <v>43585</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="12">
         <v>0.72</v>
       </c>
-      <c r="C221" s="9">
+      <c r="C221" s="12">
         <v>28.53</v>
       </c>
     </row>
@@ -17257,10 +17396,10 @@
       <c r="A222" s="7">
         <v>43616</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="12">
         <v>0.75</v>
       </c>
-      <c r="C222" s="9">
+      <c r="C222" s="12">
         <v>28.63</v>
       </c>
     </row>
@@ -17268,10 +17407,10 @@
       <c r="A223" s="7">
         <v>43646</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="12">
         <v>0.6</v>
       </c>
-      <c r="C223" s="9">
+      <c r="C223" s="12">
         <v>28.31</v>
       </c>
     </row>
@@ -17279,10 +17418,10 @@
       <c r="A224" s="7">
         <v>43677</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="12">
         <v>0.42</v>
       </c>
-      <c r="C224" s="9">
+      <c r="C224" s="12">
         <v>27.72</v>
       </c>
     </row>
@@ -17290,10 +17429,10 @@
       <c r="A225" s="7">
         <v>43708</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="12">
         <v>0.15</v>
       </c>
-      <c r="C225" s="9">
+      <c r="C225" s="12">
         <v>27.05</v>
       </c>
     </row>
@@ -17301,10 +17440,10 @@
       <c r="A226" s="7">
         <v>43738</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="12">
         <v>-0.01</v>
       </c>
-      <c r="C226" s="9">
+      <c r="C226" s="12">
         <v>26.75</v>
       </c>
     </row>
@@ -17312,10 +17451,10 @@
       <c r="A227" s="7">
         <v>43769</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="12">
         <v>0.52</v>
       </c>
-      <c r="C227" s="9">
+      <c r="C227" s="12">
         <v>27.28</v>
       </c>
     </row>
@@ -17323,10 +17462,10 @@
       <c r="A228" s="7">
         <v>43799</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="12">
         <v>0.46</v>
       </c>
-      <c r="C228" s="9">
+      <c r="C228" s="12">
         <v>27.28</v>
       </c>
     </row>
@@ -17334,10 +17473,10 @@
       <c r="A229" s="7">
         <v>43830</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="12">
         <v>0.44</v>
       </c>
-      <c r="C229" s="9">
+      <c r="C229" s="12">
         <v>27.08</v>
       </c>
     </row>
@@ -17345,10 +17484,10 @@
       <c r="A230" s="7">
         <v>43861</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="12">
         <v>0.52</v>
       </c>
-      <c r="C230" s="9">
+      <c r="C230" s="12">
         <v>27.08</v>
       </c>
     </row>
@@ -17356,10 +17495,10 @@
       <c r="A231" s="7">
         <v>43890</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="12">
         <v>0.35</v>
       </c>
-      <c r="C231" s="9">
+      <c r="C231" s="12">
         <v>27.09</v>
       </c>
     </row>
@@ -17367,10 +17506,10 @@
       <c r="A232" s="7">
         <v>43921</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="12">
         <v>0.46</v>
       </c>
-      <c r="C232" s="9">
+      <c r="C232" s="12">
         <v>27.7</v>
       </c>
     </row>
@@ -17378,10 +17517,10 @@
       <c r="A233" s="7">
         <v>43951</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="12">
         <v>0.41</v>
       </c>
-      <c r="C233" s="9">
+      <c r="C233" s="12">
         <v>28.22</v>
       </c>
     </row>
@@ -17389,10 +17528,10 @@
       <c r="A234" s="7">
         <v>43982</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="12">
         <v>-0.21</v>
       </c>
-      <c r="C234" s="9">
+      <c r="C234" s="12">
         <v>27.67</v>
       </c>
     </row>
@@ -17400,10 +17539,10 @@
       <c r="A235" s="7">
         <v>44012</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="12">
         <v>-0.27</v>
       </c>
-      <c r="C235" s="9">
+      <c r="C235" s="12">
         <v>27.44</v>
       </c>
     </row>
@@ -17411,10 +17550,10 @@
       <c r="A236" s="7">
         <v>44043</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="12">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C236" s="9">
+      <c r="C236" s="12">
         <v>27.15</v>
       </c>
     </row>
@@ -17422,10 +17561,10 @@
       <c r="A237" s="7">
         <v>44074</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="12">
         <v>-0.52</v>
       </c>
-      <c r="C237" s="9">
+      <c r="C237" s="12">
         <v>26.38</v>
       </c>
     </row>
@@ -17433,10 +17572,10 @@
       <c r="A238" s="7">
         <v>44104</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="12">
         <v>-0.64</v>
       </c>
-      <c r="C238" s="9">
+      <c r="C238" s="12">
         <v>26.12</v>
       </c>
     </row>
@@ -17444,10 +17583,10 @@
       <c r="A239" s="7">
         <v>44135</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="12">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="C239" s="9">
+      <c r="C239" s="12">
         <v>25.64</v>
       </c>
     </row>
@@ -17455,10 +17594,10 @@
       <c r="A240" s="7">
         <v>44165</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="12">
         <v>-1.23</v>
       </c>
-      <c r="C240" s="9">
+      <c r="C240" s="12">
         <v>25.59</v>
       </c>
     </row>
@@ -17466,10 +17605,10 @@
       <c r="A241" s="7">
         <v>44196</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="12">
         <v>-0.99</v>
       </c>
-      <c r="C241" s="9">
+      <c r="C241" s="12">
         <v>25.66</v>
       </c>
     </row>
@@ -17477,10 +17616,10 @@
       <c r="A242" s="7">
         <v>44227</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="12">
         <v>-0.9</v>
       </c>
-      <c r="C242" s="9">
+      <c r="C242" s="12">
         <v>25.67</v>
       </c>
     </row>
@@ -17488,10 +17627,10 @@
       <c r="A243" s="7">
         <v>44255</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="12">
         <v>-0.87</v>
       </c>
-      <c r="C243" s="9">
+      <c r="C243" s="12">
         <v>25.87</v>
       </c>
     </row>
@@ -17499,10 +17638,10 @@
       <c r="A244" s="7">
         <v>44286</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="12">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="C244" s="9">
+      <c r="C244" s="12">
         <v>26.69</v>
       </c>
     </row>
@@ -17510,10 +17649,10 @@
       <c r="A245" s="7">
         <v>44316</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="12">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C245" s="9">
+      <c r="C245" s="12">
         <v>27.24</v>
       </c>
     </row>
@@ -17521,10 +17660,10 @@
       <c r="A246" s="7">
         <v>44347</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="12">
         <v>-0.32</v>
       </c>
-      <c r="C246" s="9">
+      <c r="C246" s="12">
         <v>27.56</v>
       </c>
     </row>
@@ -17532,10 +17671,10 @@
       <c r="A247" s="7">
         <v>44377</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="12">
         <v>-0.04</v>
       </c>
-      <c r="C247" s="9">
+      <c r="C247" s="12">
         <v>27.67</v>
       </c>
     </row>
@@ -17543,10 +17682,10 @@
       <c r="A248" s="7">
         <v>44408</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="12">
         <v>-0.19</v>
       </c>
-      <c r="C248" s="9">
+      <c r="C248" s="12">
         <v>27.11</v>
       </c>
     </row>
@@ -17554,10 +17693,10 @@
       <c r="A249" s="7">
         <v>44439</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="12">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="C249" s="9">
+      <c r="C249" s="12">
         <v>26.62</v>
       </c>
     </row>
@@ -17565,10 +17704,10 @@
       <c r="A250" s="7">
         <v>44469</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="12">
         <v>-0.27</v>
       </c>
-      <c r="C250" s="9">
+      <c r="C250" s="12">
         <v>26.49</v>
       </c>
     </row>
@@ -17576,10 +17715,10 @@
       <c r="A251" s="7">
         <v>44500</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="12">
         <v>-0.77</v>
       </c>
-      <c r="C251" s="9">
+      <c r="C251" s="12">
         <v>26</v>
       </c>
     </row>
@@ -17587,10 +17726,10 @@
       <c r="A252" s="7">
         <v>44530</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="12">
         <v>-0.85</v>
       </c>
-      <c r="C252" s="9">
+      <c r="C252" s="12">
         <v>25.97</v>
       </c>
     </row>
@@ -17598,10 +17737,10 @@
       <c r="A253" s="7">
         <v>44561</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="12">
         <v>-1.05</v>
       </c>
-      <c r="C253" s="9">
+      <c r="C253" s="12">
         <v>25.6</v>
       </c>
     </row>
@@ -17609,10 +17748,10 @@
       <c r="A254" s="7">
         <v>44592</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="12">
         <v>-0.83</v>
       </c>
-      <c r="C254" s="9">
+      <c r="C254" s="12">
         <v>25.73</v>
       </c>
     </row>
@@ -17620,10 +17759,10 @@
       <c r="A255" s="7">
         <v>44620</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="12">
         <v>-0.71</v>
       </c>
-      <c r="C255" s="9">
+      <c r="C255" s="12">
         <v>26.02</v>
       </c>
     </row>
@@ -17631,10 +17770,10 @@
       <c r="A256" s="7">
         <v>44651</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="12">
         <v>-0.89</v>
       </c>
-      <c r="C256" s="9">
+      <c r="C256" s="12">
         <v>26.34</v>
       </c>
     </row>
@@ -17642,10 +17781,10 @@
       <c r="A257" s="7">
         <v>44681</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="12">
         <v>-0.95</v>
       </c>
-      <c r="C257" s="9">
+      <c r="C257" s="12">
         <v>26.85</v>
       </c>
     </row>
@@ -17653,10 +17792,10 @@
       <c r="A258" s="7">
         <v>44712</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="12">
         <v>-1.05</v>
       </c>
-      <c r="C258" s="9">
+      <c r="C258" s="12">
         <v>26.83</v>
       </c>
     </row>
@@ -17664,10 +17803,10 @@
       <c r="A259" s="7">
         <v>44742</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="12">
         <v>-0.68</v>
       </c>
-      <c r="C259" s="9">
+      <c r="C259" s="12">
         <v>27.03</v>
       </c>
     </row>
@@ -17675,10 +17814,10 @@
       <c r="A260" s="7">
         <v>44773</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="12">
         <v>-0.62</v>
       </c>
-      <c r="C260" s="9">
+      <c r="C260" s="12">
         <v>26.68</v>
       </c>
     </row>
@@ -17686,10 +17825,10 @@
       <c r="A261" s="7">
         <v>44804</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="12">
         <v>-0.98</v>
       </c>
-      <c r="C261" s="9">
+      <c r="C261" s="12">
         <v>25.92</v>
       </c>
     </row>
@@ -17697,10 +17836,10 @@
       <c r="A262" s="7">
         <v>44834</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="12">
         <v>-0.93</v>
       </c>
-      <c r="C262" s="9">
+      <c r="C262" s="12">
         <v>25.83</v>
       </c>
     </row>
@@ -17708,10 +17847,10 @@
       <c r="A263" s="7">
         <v>44865</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="12">
         <v>-0.85</v>
       </c>
-      <c r="C263" s="9">
+      <c r="C263" s="12">
         <v>25.92</v>
       </c>
     </row>
@@ -17719,10 +17858,10 @@
       <c r="A264" s="7">
         <v>44895</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="12">
         <v>-0.93</v>
       </c>
-      <c r="C264" s="9">
+      <c r="C264" s="12">
         <v>25.89</v>
       </c>
     </row>
@@ -17730,14 +17869,160 @@
       <c r="A265" s="7">
         <v>44926</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="12">
         <v>-0.84</v>
       </c>
-      <c r="C265" s="9">
+      <c r="C265" s="12">
         <v>25.81</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="11">
+        <v>44957</v>
+      </c>
+      <c r="B266" s="10">
+        <v>-0.69</v>
+      </c>
+      <c r="C266" s="10">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="11">
+        <v>44985</v>
+      </c>
+      <c r="B267" s="10">
+        <v>-0.44</v>
+      </c>
+      <c r="C267" s="10">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="11">
+        <v>45016</v>
+      </c>
+      <c r="B268" s="10">
+        <v>-0.01</v>
+      </c>
+      <c r="C268" s="10">
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="11">
+        <v>45046</v>
+      </c>
+      <c r="B269" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="C269" s="10">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="11">
+        <v>45077</v>
+      </c>
+      <c r="B270" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="C270" s="10">
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="11">
+        <v>45107</v>
+      </c>
+      <c r="B271" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="C271" s="10">
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="11">
+        <v>45138</v>
+      </c>
+      <c r="B272" s="10">
+        <v>1.07</v>
+      </c>
+      <c r="C272" s="10">
+        <v>28.37</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="11">
+        <v>45169</v>
+      </c>
+      <c r="B273" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="C273" s="10">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="11">
+        <v>45199</v>
+      </c>
+      <c r="B274" s="10">
+        <v>1.53</v>
+      </c>
+      <c r="C274" s="10">
+        <v>28.29</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="11">
+        <v>45230</v>
+      </c>
+      <c r="B275" s="10">
+        <v>1.59</v>
+      </c>
+      <c r="C275" s="10">
+        <v>28.36</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="11">
+        <v>45260</v>
+      </c>
+      <c r="B276" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="C276" s="10">
+        <v>28.72</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="11">
+        <v>45291</v>
+      </c>
+      <c r="B277" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="C277" s="10">
+        <v>28.64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DCCD10-FBC8-46D4-9566-AC7A16F81A11}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source-code/dataset/dataset_enso.xlsx
+++ b/source-code/dataset/dataset_enso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\! Riset Aryajaya Alamsyah\2024_BOPTN_Hopsot\source-code\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009578B5-5AEA-4E33-AE8E-C872923F08D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39821531-36D0-402F-BFA9-E37043151D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{CF254216-5D8D-451F-A3BE-D9028E746B88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{CF254216-5D8D-451F-A3BE-D9028E746B88}"/>
   </bookViews>
   <sheets>
     <sheet name="SOI" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SST" sheetId="3" r:id="rId3"/>
     <sheet name="SST Results" sheetId="4" r:id="rId4"/>
     <sheet name="ONI" sheetId="5" r:id="rId5"/>
+    <sheet name="ONI Results" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="412">
   <si>
     <t>(STAND TAHITI - STAND DARWIN) SEA LEVEL PRESS</t>
   </si>
@@ -107,6 +108,1164 @@
   </si>
   <si>
     <t>NINO3,4</t>
+  </si>
+  <si>
+    <t>SEAS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>DJF</t>
+  </si>
+  <si>
+    <t>JFM</t>
+  </si>
+  <si>
+    <t>25.17</t>
+  </si>
+  <si>
+    <t>-1.34</t>
+  </si>
+  <si>
+    <t>FMA</t>
+  </si>
+  <si>
+    <t>25.75</t>
+  </si>
+  <si>
+    <t>MAM</t>
+  </si>
+  <si>
+    <t>26.12</t>
+  </si>
+  <si>
+    <t>AMJ</t>
+  </si>
+  <si>
+    <t>-1.07</t>
+  </si>
+  <si>
+    <t>MJJ</t>
+  </si>
+  <si>
+    <t>26.31</t>
+  </si>
+  <si>
+    <t>-0.85</t>
+  </si>
+  <si>
+    <t>JJA</t>
+  </si>
+  <si>
+    <t>26.21</t>
+  </si>
+  <si>
+    <t>-0.54</t>
+  </si>
+  <si>
+    <t>JAS</t>
+  </si>
+  <si>
+    <t>25.96</t>
+  </si>
+  <si>
+    <t>-0.42</t>
+  </si>
+  <si>
+    <t>ASO</t>
+  </si>
+  <si>
+    <t>25.76</t>
+  </si>
+  <si>
+    <t>SON</t>
+  </si>
+  <si>
+    <t>25.63</t>
+  </si>
+  <si>
+    <t>-0.44</t>
+  </si>
+  <si>
+    <t>OND</t>
+  </si>
+  <si>
+    <t>NDJ</t>
+  </si>
+  <si>
+    <t>26.74</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>27.48</t>
+  </si>
+  <si>
+    <t>27.75</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>27.44</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>27.28</t>
+  </si>
+  <si>
+    <t>27.14</t>
+  </si>
+  <si>
+    <t>27.22</t>
+  </si>
+  <si>
+    <t>26.95</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>27.25</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>27.59</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>27.17</t>
+  </si>
+  <si>
+    <t>26.67</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>26.30</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>27.10</t>
+  </si>
+  <si>
+    <t>27.53</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>28.14</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>27.94</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>27.49</t>
+  </si>
+  <si>
+    <t>26.93</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>26.92</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>26.97</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>26.86</t>
+  </si>
+  <si>
+    <t>26.89</t>
+  </si>
+  <si>
+    <t>-0.41</t>
+  </si>
+  <si>
+    <t>26.85</t>
+  </si>
+  <si>
+    <t>-0.50</t>
+  </si>
+  <si>
+    <t>26.10</t>
+  </si>
+  <si>
+    <t>25.54</t>
+  </si>
+  <si>
+    <t>-0.84</t>
+  </si>
+  <si>
+    <t>-0.77</t>
+  </si>
+  <si>
+    <t>25.35</t>
+  </si>
+  <si>
+    <t>-0.73</t>
+  </si>
+  <si>
+    <t>-0.66</t>
+  </si>
+  <si>
+    <t>-0.68</t>
+  </si>
+  <si>
+    <t>-0.62</t>
+  </si>
+  <si>
+    <t>26.22</t>
+  </si>
+  <si>
+    <t>-0.69</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>26.60</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
+    <t>-0.72</t>
+  </si>
+  <si>
+    <t>26.06</t>
+  </si>
+  <si>
+    <t>25.64</t>
+  </si>
+  <si>
+    <t>-1.09</t>
+  </si>
+  <si>
+    <t>-1.42</t>
+  </si>
+  <si>
+    <t>26.37</t>
+  </si>
+  <si>
+    <t>-0.63</t>
+  </si>
+  <si>
+    <t>-0.52</t>
+  </si>
+  <si>
+    <t>-0.57</t>
+  </si>
+  <si>
+    <t>25.87</t>
+  </si>
+  <si>
+    <t>-0.55</t>
+  </si>
+  <si>
+    <t>-0.46</t>
+  </si>
+  <si>
+    <t>25.67</t>
+  </si>
+  <si>
+    <t>-0.43</t>
+  </si>
+  <si>
+    <t>25.77</t>
+  </si>
+  <si>
+    <t>26.09</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>26.68</t>
+  </si>
+  <si>
+    <t>27.41</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>28.37</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>28.34</t>
+  </si>
+  <si>
+    <t>28.06</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>27.64</t>
+  </si>
+  <si>
+    <t>28.28</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>27.87</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>27.38</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>26.81</t>
+  </si>
+  <si>
+    <t>27.24</t>
+  </si>
+  <si>
+    <t>27.51</t>
+  </si>
+  <si>
+    <t>27.65</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>26.63</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>26.15</t>
+  </si>
+  <si>
+    <t>26.08</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>26.51</t>
+  </si>
+  <si>
+    <t>27.39</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>27.47</t>
+  </si>
+  <si>
+    <t>27.26</t>
+  </si>
+  <si>
+    <t>26.44</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>26.96</t>
+  </si>
+  <si>
+    <t>27.35</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>27.42</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>-0.26</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.24</t>
+  </si>
+  <si>
+    <t>-0.22</t>
+  </si>
+  <si>
+    <t>26.71</t>
+  </si>
+  <si>
+    <t>27.09</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>25.88</t>
+  </si>
+  <si>
+    <t>25.79</t>
+  </si>
+  <si>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>-0.40</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>27.07</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>27.62</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>27.54</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>27.40</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>27.36</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>27.03</t>
+  </si>
+  <si>
+    <t>-0.33</t>
+  </si>
+  <si>
+    <t>25.69</t>
+  </si>
+  <si>
+    <t>-0.59</t>
+  </si>
+  <si>
+    <t>27.82</t>
+  </si>
+  <si>
+    <t>28.04</t>
+  </si>
+  <si>
+    <t>28.09</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>27.91</t>
+  </si>
+  <si>
+    <t>27.72</t>
+  </si>
+  <si>
+    <t>27.97</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>26.04</t>
+  </si>
+  <si>
+    <t>26.01</t>
+  </si>
+  <si>
+    <t>-0.48</t>
+  </si>
+  <si>
+    <t>26.46</t>
+  </si>
+  <si>
+    <t>27.19</t>
+  </si>
+  <si>
+    <t>26.41</t>
+  </si>
+  <si>
+    <t>-0.38</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>25.90</t>
+  </si>
+  <si>
+    <t>26.38</t>
+  </si>
+  <si>
+    <t>26.88</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>27.32</t>
+  </si>
+  <si>
+    <t>27.73</t>
+  </si>
+  <si>
+    <t>27.69</t>
+  </si>
+  <si>
+    <t>27.08</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>27.20</t>
+  </si>
+  <si>
+    <t>26.98</t>
+  </si>
+  <si>
+    <t>27.29</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>25.81</t>
+  </si>
+  <si>
+    <t>25.61</t>
+  </si>
+  <si>
+    <t>-0.86</t>
+  </si>
+  <si>
+    <t>25.22</t>
+  </si>
+  <si>
+    <t>26.73</t>
+  </si>
+  <si>
+    <t>25.58</t>
+  </si>
+  <si>
+    <t>26.35</t>
+  </si>
+  <si>
+    <t>-0.35</t>
+  </si>
+  <si>
+    <t>28.13</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>28.32</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>26.42</t>
+  </si>
+  <si>
+    <t>25.84</t>
+  </si>
+  <si>
+    <t>26.33</t>
+  </si>
+  <si>
+    <t>-0.91</t>
+  </si>
+  <si>
+    <t>26.52</t>
+  </si>
+  <si>
+    <t>26.26</t>
+  </si>
+  <si>
+    <t>-0.37</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>25.94</t>
+  </si>
+  <si>
+    <t>-0.65</t>
+  </si>
+  <si>
+    <t>26.64</t>
+  </si>
+  <si>
+    <t>-0.83</t>
+  </si>
+  <si>
+    <t>-0.98</t>
+  </si>
+  <si>
+    <t>25.43</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>-1.56</t>
+  </si>
+  <si>
+    <t>-1.17</t>
+  </si>
+  <si>
+    <t>-0.47</t>
+  </si>
+  <si>
+    <t>27.15</t>
+  </si>
+  <si>
+    <t>27.04</t>
+  </si>
+  <si>
+    <t>27.18</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>27.31</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>27.61</t>
+  </si>
+  <si>
+    <t>27.21</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>-0.29</t>
+  </si>
+  <si>
+    <t>-0.36</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>27.66</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>27.06</t>
+  </si>
+  <si>
+    <t>27.13</t>
+  </si>
+  <si>
+    <t>27.70</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>26.48</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>28.10</t>
+  </si>
+  <si>
+    <t>27.83</t>
+  </si>
+  <si>
+    <t>28.76</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>-0.81</t>
+  </si>
+  <si>
+    <t>-0.56</t>
+  </si>
+  <si>
+    <t>-0.92</t>
+  </si>
+  <si>
+    <t>-1.04</t>
+  </si>
+  <si>
+    <t>26.76</t>
+  </si>
+  <si>
+    <t>-0.49</t>
+  </si>
+  <si>
+    <t>26.25</t>
+  </si>
+  <si>
+    <t>-0.27</t>
+  </si>
+  <si>
+    <t>26.14</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>27.34</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>27.76</t>
+  </si>
+  <si>
+    <t>28.59</t>
+  </si>
+  <si>
+    <t>28.24</t>
+  </si>
+  <si>
+    <t>28.03</t>
+  </si>
+  <si>
+    <t>25.40</t>
+  </si>
+  <si>
+    <t>-1.19</t>
+  </si>
+  <si>
+    <t>25.07</t>
+  </si>
+  <si>
+    <t>26.99</t>
+  </si>
+  <si>
+    <t>27.37</t>
+  </si>
+  <si>
+    <t>27.02</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>27.85</t>
+  </si>
+  <si>
+    <t>27.57</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>28.18</t>
+  </si>
+  <si>
+    <t>28.88</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>27.43</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>27.74</t>
+  </si>
+  <si>
+    <t>27.84</t>
+  </si>
+  <si>
+    <t>-0.97</t>
+  </si>
+  <si>
+    <t>25.70</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>28.81</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>29.01</t>
+  </si>
+  <si>
+    <t>-1.35</t>
+  </si>
+  <si>
+    <t>26.62</t>
+  </si>
+  <si>
+    <t>25.80</t>
+  </si>
+  <si>
+    <t>27.80</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>27.58</t>
+  </si>
+  <si>
+    <t>27.56</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>27.05</t>
+  </si>
+  <si>
+    <t>27.63</t>
+  </si>
+  <si>
+    <t>27.52</t>
+  </si>
+  <si>
+    <t>27.30</t>
+  </si>
+  <si>
+    <t>28.02</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>27.45</t>
+  </si>
+  <si>
+    <t>25.37</t>
+  </si>
+  <si>
+    <t>-1.50</t>
+  </si>
+  <si>
+    <t>25.02</t>
+  </si>
+  <si>
+    <t>-1.60</t>
+  </si>
+  <si>
+    <t>-1.64</t>
+  </si>
+  <si>
+    <t>-1.52</t>
+  </si>
+  <si>
+    <t>-1.29</t>
+  </si>
+  <si>
+    <t>-1.01</t>
+  </si>
+  <si>
+    <t>-0.23</t>
+  </si>
+  <si>
+    <t>26.36</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>-1.05</t>
+  </si>
+  <si>
+    <t>25.21</t>
+  </si>
+  <si>
+    <t>25.03</t>
+  </si>
+  <si>
+    <t>-1.59</t>
+  </si>
+  <si>
+    <t>25.68</t>
+  </si>
+  <si>
+    <t>-0.93</t>
+  </si>
+  <si>
+    <t>25.93</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>26.54</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>28.38</t>
+  </si>
+  <si>
+    <t>28.83</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>28.82</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>28.93</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>29.14</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>29.25</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>29.26</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>29.12</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>28.62</t>
+  </si>
+  <si>
+    <t>28.22</t>
+  </si>
+  <si>
+    <t>26.02</t>
+  </si>
+  <si>
+    <t>-0.67</t>
+  </si>
+  <si>
+    <t>27.89</t>
+  </si>
+  <si>
+    <t>26.84</t>
+  </si>
+  <si>
+    <t>25.72</t>
+  </si>
+  <si>
+    <t>-0.70</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>28.01</t>
+  </si>
+  <si>
+    <t>-0.89</t>
+  </si>
+  <si>
+    <t>-1.27</t>
+  </si>
+  <si>
+    <t>25.59</t>
+  </si>
+  <si>
+    <t>-0.99</t>
+  </si>
+  <si>
+    <t>-1.06</t>
+  </si>
+  <si>
+    <t>26.80</t>
+  </si>
+  <si>
+    <t>28.31</t>
+  </si>
+  <si>
+    <t>28.42</t>
+  </si>
+  <si>
+    <t>28.36</t>
+  </si>
+  <si>
+    <t>28.49</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>28.60</t>
   </si>
 </sst>
 </file>
@@ -168,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +1363,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -532,68 +1694,68 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="O1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3" t="s">
@@ -2936,15 +4098,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7548ABF-5FB3-4511-8B60-8900F5DFAAA6}">
   <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6010,35 +7172,35 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -14952,13 +16114,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E47741-BBFB-4D1A-92C1-568BD413F902}">
   <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="M267" sqref="M267"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -18015,14 +19177,6958 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DCCD10-FBC8-46D4-9566-AC7A16F81A11}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B166" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B169" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B171" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B173" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B174" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B177" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B178" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B180" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B181" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B182" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B183" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B184" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B186" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B188" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B189" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B190" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B193" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B195" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B197" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B198" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B199" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B200" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B201" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B202" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B203" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B204" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B205" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B207" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B208" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B209" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B210" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B211" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B212" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B213" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B214" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B215" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B217" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B219" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B220" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B221" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B222" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B223" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B224" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B225" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B226" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B227" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B228" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B229" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B230" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B231" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B232" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B233" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B234" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B235" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B236" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B237" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B238" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B239" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B240" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B241" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B242" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B243" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B244" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B245" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B246" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B247" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B248" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B249" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B250" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B251" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B252" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B253" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B254" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B255" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B256" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B257" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B258" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B259" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B260" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B261" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B262" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B263" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B264" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B265" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B266" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B267" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B268" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B269" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B270" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B271" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B272" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B273" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B274" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B275" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B276" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B277" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B629332-3130-42C6-854B-F1B1A60DE610}">
+  <dimension ref="A1:C277"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7">
+        <v>36922</v>
+      </c>
+      <c r="B2" s="13">
+        <v>-0.68</v>
+      </c>
+      <c r="C2" s="13">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7">
+        <v>36950</v>
+      </c>
+      <c r="B3" s="13">
+        <v>-0.52</v>
+      </c>
+      <c r="C3" s="13">
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7">
+        <v>36981</v>
+      </c>
+      <c r="B4" s="13">
+        <v>-0.44</v>
+      </c>
+      <c r="C4" s="13">
+        <v>26.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7">
+        <v>37011</v>
+      </c>
+      <c r="B5" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="C5" s="13">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7">
+        <v>37042</v>
+      </c>
+      <c r="B6" s="13">
+        <v>-0.25</v>
+      </c>
+      <c r="C6" s="13">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7">
+        <v>37072</v>
+      </c>
+      <c r="B7" s="13">
+        <v>-0.12</v>
+      </c>
+      <c r="C7" s="13">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7">
+        <v>37103</v>
+      </c>
+      <c r="B8" s="13">
+        <v>-0.08</v>
+      </c>
+      <c r="C8" s="13">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7">
+        <v>37134</v>
+      </c>
+      <c r="B9" s="13">
+        <v>-0.13</v>
+      </c>
+      <c r="C9" s="13">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7">
+        <v>37164</v>
+      </c>
+      <c r="B10" s="13">
+        <v>-0.19</v>
+      </c>
+      <c r="C10" s="13">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7">
+        <v>37195</v>
+      </c>
+      <c r="B11" s="13">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C11" s="13">
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7">
+        <v>37225</v>
+      </c>
+      <c r="B12" s="13">
+        <v>-0.35</v>
+      </c>
+      <c r="C12" s="13">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7">
+        <v>37256</v>
+      </c>
+      <c r="B13" s="13">
+        <v>-0.31</v>
+      </c>
+      <c r="C13" s="13">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7">
+        <v>37287</v>
+      </c>
+      <c r="B14" s="13">
+        <v>-0.15</v>
+      </c>
+      <c r="C14" s="13">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7">
+        <v>37315</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="C15" s="13">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7">
+        <v>37346</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="C16" s="13">
+        <v>27.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7">
+        <v>37376</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="13">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7">
+        <v>37407</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="C18" s="13">
+        <v>28.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7">
+        <v>37437</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="C19" s="13">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7">
+        <v>37468</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="C20" s="13">
+        <v>28.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7">
+        <v>37499</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="C21" s="13">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7">
+        <v>37529</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1.01</v>
+      </c>
+      <c r="C22" s="13">
+        <v>27.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7">
+        <v>37560</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1.21</v>
+      </c>
+      <c r="C23" s="13">
+        <v>27.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7">
+        <v>37590</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1.31</v>
+      </c>
+      <c r="C24" s="13">
+        <v>28.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7">
+        <v>37621</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C25" s="13">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7">
+        <v>37652</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="C26" s="13">
+        <v>27.51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7">
+        <v>37680</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="C27" s="13">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7">
+        <v>37711</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="C28" s="13">
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7">
+        <v>37741</v>
+      </c>
+      <c r="B29" s="13">
+        <v>-0.04</v>
+      </c>
+      <c r="C29" s="13">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7">
+        <v>37772</v>
+      </c>
+      <c r="B30" s="13">
+        <v>-0.26</v>
+      </c>
+      <c r="C30" s="13">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7">
+        <v>37802</v>
+      </c>
+      <c r="B31" s="13">
+        <v>-0.16</v>
+      </c>
+      <c r="C31" s="13">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7">
+        <v>37833</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="C32" s="13">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7">
+        <v>37864</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="C33" s="13">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7">
+        <v>37894</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="C34" s="13">
+        <v>27.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7">
+        <v>37925</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C35" s="13">
+        <v>27.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7">
+        <v>37955</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="C36" s="13">
+        <v>27.07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7">
+        <v>37986</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="C37" s="13">
+        <v>26.97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7">
+        <v>38017</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="C38" s="13">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7">
+        <v>38046</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="C39" s="13">
+        <v>27.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7">
+        <v>38077</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="C40" s="13">
+        <v>27.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7">
+        <v>38107</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="C41" s="13">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7">
+        <v>38138</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="C42" s="13">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7">
+        <v>38168</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C43" s="13">
+        <v>27.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7">
+        <v>38199</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="C44" s="13">
+        <v>27.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7">
+        <v>38230</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="C45" s="13">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7">
+        <v>38260</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C46" s="13">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="7">
+        <v>38291</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="C47" s="13">
+        <v>27.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="7">
+        <v>38321</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="C48" s="13">
+        <v>27.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7">
+        <v>38352</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="C49" s="13">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7">
+        <v>38383</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="C50" s="13">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="7">
+        <v>38411</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C51" s="13">
+        <v>27.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="7">
+        <v>38442</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="C52" s="13">
+        <v>27.65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="7">
+        <v>38472</v>
+      </c>
+      <c r="B53" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="C53" s="13">
+        <v>28.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="7">
+        <v>38503</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C54" s="13">
+        <v>28.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="7">
+        <v>38533</v>
+      </c>
+      <c r="B55" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="C55" s="13">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="7">
+        <v>38564</v>
+      </c>
+      <c r="B56" s="13">
+        <v>-0.06</v>
+      </c>
+      <c r="C56" s="13">
+        <v>27.21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="7">
+        <v>38595</v>
+      </c>
+      <c r="B57" s="13">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C57" s="13">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="7">
+        <v>38625</v>
+      </c>
+      <c r="B58" s="13">
+        <v>-0.11</v>
+      </c>
+      <c r="C58" s="13">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7">
+        <v>38656</v>
+      </c>
+      <c r="B59" s="13">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="C59" s="13">
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="7">
+        <v>38686</v>
+      </c>
+      <c r="B60" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="C60" s="13">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="7">
+        <v>38717</v>
+      </c>
+      <c r="B61" s="13">
+        <v>-0.84</v>
+      </c>
+      <c r="C61" s="13">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="7">
+        <v>38748</v>
+      </c>
+      <c r="B62" s="13">
+        <v>-0.85</v>
+      </c>
+      <c r="C62" s="13">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="7">
+        <v>38776</v>
+      </c>
+      <c r="B63" s="13">
+        <v>-0.77</v>
+      </c>
+      <c r="C63" s="13">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="7">
+        <v>38807</v>
+      </c>
+      <c r="B64" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="C64" s="13">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="7">
+        <v>38837</v>
+      </c>
+      <c r="B65" s="13">
+        <v>-0.37</v>
+      </c>
+      <c r="C65" s="13">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="7">
+        <v>38868</v>
+      </c>
+      <c r="B66" s="13">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C66" s="13">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="7">
+        <v>38898</v>
+      </c>
+      <c r="B67" s="13">
+        <v>-0.03</v>
+      </c>
+      <c r="C67" s="13">
+        <v>27.62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="7">
+        <v>38929</v>
+      </c>
+      <c r="B68" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C68" s="13">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7">
+        <v>38960</v>
+      </c>
+      <c r="B69" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C69" s="13">
+        <v>27.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="7">
+        <v>38990</v>
+      </c>
+      <c r="B70" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="C70" s="13">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="7">
+        <v>39021</v>
+      </c>
+      <c r="B71" s="13">
+        <v>0.77</v>
+      </c>
+      <c r="C71" s="13">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="7">
+        <v>39051</v>
+      </c>
+      <c r="B72" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="C72" s="13">
+        <v>27.62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="7">
+        <v>39082</v>
+      </c>
+      <c r="B73" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="C73" s="13">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="7">
+        <v>39113</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="C74" s="13">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="7">
+        <v>39141</v>
+      </c>
+      <c r="B75" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="C75" s="13">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7">
+        <v>39172</v>
+      </c>
+      <c r="B76" s="13">
+        <v>-0.12</v>
+      </c>
+      <c r="C76" s="13">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="7">
+        <v>39202</v>
+      </c>
+      <c r="B77" s="13">
+        <v>-0.32</v>
+      </c>
+      <c r="C77" s="13">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="7">
+        <v>39233</v>
+      </c>
+      <c r="B78" s="13">
+        <v>-0.38</v>
+      </c>
+      <c r="C78" s="13">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="7">
+        <v>39263</v>
+      </c>
+      <c r="B79" s="13">
+        <v>-0.47</v>
+      </c>
+      <c r="C79" s="13">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="7">
+        <v>39294</v>
+      </c>
+      <c r="B80" s="13">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="C80" s="13">
+        <v>26.74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="7">
+        <v>39325</v>
+      </c>
+      <c r="B81" s="13">
+        <v>-0.81</v>
+      </c>
+      <c r="C81" s="13">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="7">
+        <v>39355</v>
+      </c>
+      <c r="B82" s="13">
+        <v>-1.07</v>
+      </c>
+      <c r="C82" s="13">
+        <v>25.69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="7">
+        <v>39386</v>
+      </c>
+      <c r="B83" s="13">
+        <v>-1.34</v>
+      </c>
+      <c r="C83" s="13">
+        <v>25.37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="7">
+        <v>39416</v>
+      </c>
+      <c r="B84" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="C84" s="13">
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="7">
+        <v>39447</v>
+      </c>
+      <c r="B85" s="13">
+        <v>-1.6</v>
+      </c>
+      <c r="C85" s="13">
+        <v>25.02</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="7">
+        <v>39478</v>
+      </c>
+      <c r="B86" s="13">
+        <v>-1.64</v>
+      </c>
+      <c r="C86" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="7">
+        <v>39507</v>
+      </c>
+      <c r="B87" s="13">
+        <v>-1.52</v>
+      </c>
+      <c r="C87" s="13">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="7">
+        <v>39538</v>
+      </c>
+      <c r="B88" s="13">
+        <v>-1.29</v>
+      </c>
+      <c r="C88" s="13">
+        <v>26.01</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="7">
+        <v>39568</v>
+      </c>
+      <c r="B89" s="13">
+        <v>-1.01</v>
+      </c>
+      <c r="C89" s="13">
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="7">
+        <v>39599</v>
+      </c>
+      <c r="B90" s="13">
+        <v>-0.84</v>
+      </c>
+      <c r="C90" s="13">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="7">
+        <v>39629</v>
+      </c>
+      <c r="B91" s="13">
+        <v>-0.61</v>
+      </c>
+      <c r="C91" s="13">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="7">
+        <v>39660</v>
+      </c>
+      <c r="B92" s="13">
+        <v>-0.37</v>
+      </c>
+      <c r="C92" s="13">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="7">
+        <v>39691</v>
+      </c>
+      <c r="B93" s="13">
+        <v>-0.23</v>
+      </c>
+      <c r="C93" s="13">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="7">
+        <v>39721</v>
+      </c>
+      <c r="B94" s="13">
+        <v>-0.24</v>
+      </c>
+      <c r="C94" s="13">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="7">
+        <v>39752</v>
+      </c>
+      <c r="B95" s="13">
+        <v>-0.35</v>
+      </c>
+      <c r="C95" s="13">
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="7">
+        <v>39782</v>
+      </c>
+      <c r="B96" s="13">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C96" s="13">
+        <v>26.12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="7">
+        <v>39813</v>
+      </c>
+      <c r="B97" s="13">
+        <v>-0.73</v>
+      </c>
+      <c r="C97" s="13">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="7">
+        <v>39844</v>
+      </c>
+      <c r="B98" s="13">
+        <v>-0.85</v>
+      </c>
+      <c r="C98" s="13">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="7">
+        <v>39872</v>
+      </c>
+      <c r="B99" s="13">
+        <v>-0.79</v>
+      </c>
+      <c r="C99" s="13">
+        <v>26.08</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="7">
+        <v>39903</v>
+      </c>
+      <c r="B100" s="13">
+        <v>-0.61</v>
+      </c>
+      <c r="C100" s="13">
+        <v>26.68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="7">
+        <v>39933</v>
+      </c>
+      <c r="B101" s="13">
+        <v>-0.33</v>
+      </c>
+      <c r="C101" s="13">
+        <v>27.36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="7">
+        <v>39964</v>
+      </c>
+      <c r="B102" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="C102" s="13">
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="7">
+        <v>39994</v>
+      </c>
+      <c r="B103" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C103" s="13">
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="7">
+        <v>40025</v>
+      </c>
+      <c r="B104" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="C104" s="13">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="7">
+        <v>40056</v>
+      </c>
+      <c r="B105" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C105" s="13">
+        <v>27.53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="7">
+        <v>40086</v>
+      </c>
+      <c r="B106" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="C106" s="13">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="7">
+        <v>40117</v>
+      </c>
+      <c r="B107" s="13">
+        <v>1.01</v>
+      </c>
+      <c r="C107" s="13">
+        <v>27.72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="7">
+        <v>40147</v>
+      </c>
+      <c r="B108" s="13">
+        <v>1.36</v>
+      </c>
+      <c r="C108" s="13">
+        <v>28.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="7">
+        <v>40178</v>
+      </c>
+      <c r="B109" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="C109" s="13">
+        <v>28.18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="7">
+        <v>40209</v>
+      </c>
+      <c r="B110" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="C110" s="13">
+        <v>28.14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="7">
+        <v>40237</v>
+      </c>
+      <c r="B111" s="13">
+        <v>1.22</v>
+      </c>
+      <c r="C111" s="13">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="7">
+        <v>40268</v>
+      </c>
+      <c r="B112" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="C112" s="13">
+        <v>28.14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="7">
+        <v>40298</v>
+      </c>
+      <c r="B113" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="C113" s="13">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="7">
+        <v>40329</v>
+      </c>
+      <c r="B114" s="13">
+        <v>-0.17</v>
+      </c>
+      <c r="C114" s="13">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="7">
+        <v>40359</v>
+      </c>
+      <c r="B115" s="13">
+        <v>-0.66</v>
+      </c>
+      <c r="C115" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="7">
+        <v>40390</v>
+      </c>
+      <c r="B116" s="13">
+        <v>-1.05</v>
+      </c>
+      <c r="C116" s="13">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="7">
+        <v>40421</v>
+      </c>
+      <c r="B117" s="13">
+        <v>-1.35</v>
+      </c>
+      <c r="C117" s="13">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="7">
+        <v>40451</v>
+      </c>
+      <c r="B118" s="13">
+        <v>-1.56</v>
+      </c>
+      <c r="C118" s="13">
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="7">
+        <v>40482</v>
+      </c>
+      <c r="B119" s="13">
+        <v>-1.64</v>
+      </c>
+      <c r="C119" s="13">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="7">
+        <v>40512</v>
+      </c>
+      <c r="B120" s="13">
+        <v>-1.64</v>
+      </c>
+      <c r="C120" s="13">
+        <v>25.03</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="7">
+        <v>40543</v>
+      </c>
+      <c r="B121" s="13">
+        <v>-1.59</v>
+      </c>
+      <c r="C121" s="13">
+        <v>25.02</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="7">
+        <v>40574</v>
+      </c>
+      <c r="B122" s="13">
+        <v>-1.42</v>
+      </c>
+      <c r="C122" s="13">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="7">
+        <v>40602</v>
+      </c>
+      <c r="B123" s="13">
+        <v>-1.19</v>
+      </c>
+      <c r="C123" s="13">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="7">
+        <v>40633</v>
+      </c>
+      <c r="B124" s="13">
+        <v>-0.93</v>
+      </c>
+      <c r="C124" s="13">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="7">
+        <v>40663</v>
+      </c>
+      <c r="B125" s="13">
+        <v>-0.73</v>
+      </c>
+      <c r="C125" s="13">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="7">
+        <v>40694</v>
+      </c>
+      <c r="B126" s="13">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C126" s="13">
+        <v>27.28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="7">
+        <v>40724</v>
+      </c>
+      <c r="B127" s="13">
+        <v>-0.44</v>
+      </c>
+      <c r="C127" s="13">
+        <v>27.21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="7">
+        <v>40755</v>
+      </c>
+      <c r="B128" s="13">
+        <v>-0.48</v>
+      </c>
+      <c r="C128" s="13">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="7">
+        <v>40786</v>
+      </c>
+      <c r="B129" s="13">
+        <v>-0.62</v>
+      </c>
+      <c r="C129" s="13">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="7">
+        <v>40816</v>
+      </c>
+      <c r="B130" s="13">
+        <v>-0.83</v>
+      </c>
+      <c r="C130" s="13">
+        <v>25.93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="7">
+        <v>40847</v>
+      </c>
+      <c r="B131" s="13">
+        <v>-1.01</v>
+      </c>
+      <c r="C131" s="13">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="7">
+        <v>40877</v>
+      </c>
+      <c r="B132" s="13">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="C132" s="13">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="7">
+        <v>40908</v>
+      </c>
+      <c r="B133" s="13">
+        <v>-1.04</v>
+      </c>
+      <c r="C133" s="13">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="7">
+        <v>40939</v>
+      </c>
+      <c r="B134" s="13">
+        <v>-0.86</v>
+      </c>
+      <c r="C134" s="13">
+        <v>25.77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="7">
+        <v>40968</v>
+      </c>
+      <c r="B135" s="13">
+        <v>-0.72</v>
+      </c>
+      <c r="C135" s="13">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="7">
+        <v>40999</v>
+      </c>
+      <c r="B136" s="13">
+        <v>-0.59</v>
+      </c>
+      <c r="C136" s="13">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="7">
+        <v>41029</v>
+      </c>
+      <c r="B137" s="13">
+        <v>-0.47</v>
+      </c>
+      <c r="C137" s="13">
+        <v>27.21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="7">
+        <v>41060</v>
+      </c>
+      <c r="B138" s="13">
+        <v>-0.26</v>
+      </c>
+      <c r="C138" s="13">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="7">
+        <v>41090</v>
+      </c>
+      <c r="B139" s="13">
+        <v>-0.01</v>
+      </c>
+      <c r="C139" s="13">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="7">
+        <v>41121</v>
+      </c>
+      <c r="B140" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C140" s="13">
+        <v>27.54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="7">
+        <v>41152</v>
+      </c>
+      <c r="B141" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="C141" s="13">
+        <v>27.32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="7">
+        <v>41182</v>
+      </c>
+      <c r="B142" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="C142" s="13">
+        <v>27.13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="7">
+        <v>41213</v>
+      </c>
+      <c r="B143" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="C143" s="13">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="7">
+        <v>41243</v>
+      </c>
+      <c r="B144" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="C144" s="13">
+        <v>26.73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="7">
+        <v>41274</v>
+      </c>
+      <c r="B145" s="13">
+        <v>-0.21</v>
+      </c>
+      <c r="C145" s="13">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="7">
+        <v>41305</v>
+      </c>
+      <c r="B146" s="13">
+        <v>-0.43</v>
+      </c>
+      <c r="C146" s="13">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="7">
+        <v>41333</v>
+      </c>
+      <c r="B147" s="13">
+        <v>-0.43</v>
+      </c>
+      <c r="C147" s="13">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="7">
+        <v>41364</v>
+      </c>
+      <c r="B148" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="C148" s="13">
+        <v>26.96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="7">
+        <v>41394</v>
+      </c>
+      <c r="B149" s="13">
+        <v>-0.3</v>
+      </c>
+      <c r="C149" s="13">
+        <v>27.38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="7">
+        <v>41425</v>
+      </c>
+      <c r="B150" s="13">
+        <v>-0.36</v>
+      </c>
+      <c r="C150" s="13">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="7">
+        <v>41455</v>
+      </c>
+      <c r="B151" s="13">
+        <v>-0.41</v>
+      </c>
+      <c r="C151" s="13">
+        <v>27.24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="7">
+        <v>41486</v>
+      </c>
+      <c r="B152" s="13">
+        <v>-0.4</v>
+      </c>
+      <c r="C152" s="13">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="7">
+        <v>41517</v>
+      </c>
+      <c r="B153" s="13">
+        <v>-0.32</v>
+      </c>
+      <c r="C153" s="13">
+        <v>26.64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="7">
+        <v>41547</v>
+      </c>
+      <c r="B154" s="13">
+        <v>-0.26</v>
+      </c>
+      <c r="C154" s="13">
+        <v>26.51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="7">
+        <v>41578</v>
+      </c>
+      <c r="B155" s="13">
+        <v>-0.18</v>
+      </c>
+      <c r="C155" s="13">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="7">
+        <v>41608</v>
+      </c>
+      <c r="B156" s="13">
+        <v>-0.17</v>
+      </c>
+      <c r="C156" s="13">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="7">
+        <v>41639</v>
+      </c>
+      <c r="B157" s="13">
+        <v>-0.27</v>
+      </c>
+      <c r="C157" s="13">
+        <v>26.35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="7">
+        <v>41670</v>
+      </c>
+      <c r="B158" s="13">
+        <v>-0.42</v>
+      </c>
+      <c r="C158" s="13">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="7">
+        <v>41698</v>
+      </c>
+      <c r="B159" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="C159" s="13">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="7">
+        <v>41729</v>
+      </c>
+      <c r="B160" s="13">
+        <v>-0.27</v>
+      </c>
+      <c r="C160" s="13">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="7">
+        <v>41759</v>
+      </c>
+      <c r="B161" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="C161" s="13">
+        <v>27.73</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="7">
+        <v>41790</v>
+      </c>
+      <c r="B162" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="C162" s="13">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="7">
+        <v>41820</v>
+      </c>
+      <c r="B163" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="C163" s="13">
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="7">
+        <v>41851</v>
+      </c>
+      <c r="B164" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="C164" s="13">
+        <v>27.34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="7">
+        <v>41882</v>
+      </c>
+      <c r="B165" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C165" s="13">
+        <v>27.02</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="7">
+        <v>41912</v>
+      </c>
+      <c r="B166" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="C166" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="7">
+        <v>41943</v>
+      </c>
+      <c r="B167" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="C167" s="13">
+        <v>27.21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="7">
+        <v>41973</v>
+      </c>
+      <c r="B168" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="C168" s="13">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="7">
+        <v>42004</v>
+      </c>
+      <c r="B169" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="C169" s="13">
+        <v>27.28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="7">
+        <v>42035</v>
+      </c>
+      <c r="B170" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C170" s="13">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="7">
+        <v>42063</v>
+      </c>
+      <c r="B171" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="C171" s="13">
+        <v>27.34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="7">
+        <v>42094</v>
+      </c>
+      <c r="B172" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="C172" s="13">
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="7">
+        <v>42124</v>
+      </c>
+      <c r="B173" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C173" s="13">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="7">
+        <v>42155</v>
+      </c>
+      <c r="B174" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="C174" s="13">
+        <v>28.76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="7">
+        <v>42185</v>
+      </c>
+      <c r="B175" s="13">
+        <v>1.18</v>
+      </c>
+      <c r="C175" s="13">
+        <v>28.83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="7">
+        <v>42216</v>
+      </c>
+      <c r="B176" s="13">
+        <v>1.52</v>
+      </c>
+      <c r="C176" s="13">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="7">
+        <v>42247</v>
+      </c>
+      <c r="B177" s="13">
+        <v>1.86</v>
+      </c>
+      <c r="C177" s="13">
+        <v>28.82</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="7">
+        <v>42277</v>
+      </c>
+      <c r="B178" s="13">
+        <v>2.16</v>
+      </c>
+      <c r="C178" s="13">
+        <v>28.93</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="7">
+        <v>42308</v>
+      </c>
+      <c r="B179" s="13">
+        <v>2.42</v>
+      </c>
+      <c r="C179" s="13">
+        <v>29.14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="7">
+        <v>42338</v>
+      </c>
+      <c r="B180" s="13">
+        <v>2.57</v>
+      </c>
+      <c r="C180" s="13">
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="7">
+        <v>42369</v>
+      </c>
+      <c r="B181" s="13">
+        <v>2.64</v>
+      </c>
+      <c r="C181" s="13">
+        <v>29.26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="7">
+        <v>42400</v>
+      </c>
+      <c r="B182" s="13">
+        <v>2.48</v>
+      </c>
+      <c r="C182" s="13">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="7">
+        <v>42429</v>
+      </c>
+      <c r="B183" s="13">
+        <v>2.14</v>
+      </c>
+      <c r="C183" s="13">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="7">
+        <v>42460</v>
+      </c>
+      <c r="B184" s="13">
+        <v>1.58</v>
+      </c>
+      <c r="C184" s="13">
+        <v>28.88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="7">
+        <v>42490</v>
+      </c>
+      <c r="B185" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="C185" s="13">
+        <v>28.62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="7">
+        <v>42521</v>
+      </c>
+      <c r="B186" s="13">
+        <v>0.39</v>
+      </c>
+      <c r="C186" s="13">
+        <v>28.22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="7">
+        <v>42551</v>
+      </c>
+      <c r="B187" s="13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C187" s="13">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="7">
+        <v>42582</v>
+      </c>
+      <c r="B188" s="13">
+        <v>-0.36</v>
+      </c>
+      <c r="C188" s="13">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="7">
+        <v>42613</v>
+      </c>
+      <c r="B189" s="13">
+        <v>-0.54</v>
+      </c>
+      <c r="C189" s="13">
+        <v>26.42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="7">
+        <v>42643</v>
+      </c>
+      <c r="B190" s="13">
+        <v>-0.63</v>
+      </c>
+      <c r="C190" s="13">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="7">
+        <v>42674</v>
+      </c>
+      <c r="B191" s="13">
+        <v>-0.69</v>
+      </c>
+      <c r="C191" s="13">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="7">
+        <v>42704</v>
+      </c>
+      <c r="B192" s="13">
+        <v>-0.67</v>
+      </c>
+      <c r="C192" s="13">
+        <v>26.01</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="7">
+        <v>42735</v>
+      </c>
+      <c r="B193" s="13">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="C193" s="13">
+        <v>26.06</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="7">
+        <v>42766</v>
+      </c>
+      <c r="B194" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="C194" s="13">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="7">
+        <v>42794</v>
+      </c>
+      <c r="B195" s="13">
+        <v>-0.16</v>
+      </c>
+      <c r="C195" s="13">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="7">
+        <v>42825</v>
+      </c>
+      <c r="B196" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="C196" s="13">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="7">
+        <v>42855</v>
+      </c>
+      <c r="B197" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C197" s="13">
+        <v>27.89</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="7">
+        <v>42886</v>
+      </c>
+      <c r="B198" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C198" s="13">
+        <v>28.13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="7">
+        <v>42916</v>
+      </c>
+      <c r="B199" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="C199" s="13">
+        <v>27.97</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="7">
+        <v>42947</v>
+      </c>
+      <c r="B200" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C200" s="13">
+        <v>27.43</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="7">
+        <v>42978</v>
+      </c>
+      <c r="B201" s="13">
+        <v>-0.11</v>
+      </c>
+      <c r="C201" s="13">
+        <v>26.84</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="7">
+        <v>43008</v>
+      </c>
+      <c r="B202" s="13">
+        <v>-0.38</v>
+      </c>
+      <c r="C202" s="13">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="7">
+        <v>43039</v>
+      </c>
+      <c r="B203" s="13">
+        <v>-0.65</v>
+      </c>
+      <c r="C203" s="13">
+        <v>26.06</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="7">
+        <v>43069</v>
+      </c>
+      <c r="B204" s="13">
+        <v>-0.84</v>
+      </c>
+      <c r="C204" s="13">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="7">
+        <v>43100</v>
+      </c>
+      <c r="B205" s="13">
+        <v>-0.97</v>
+      </c>
+      <c r="C205" s="13">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="7">
+        <v>43131</v>
+      </c>
+      <c r="B206" s="13">
+        <v>-0.92</v>
+      </c>
+      <c r="C206" s="13">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="7">
+        <v>43159</v>
+      </c>
+      <c r="B207" s="13">
+        <v>-0.85</v>
+      </c>
+      <c r="C207" s="13">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="7">
+        <v>43190</v>
+      </c>
+      <c r="B208" s="13">
+        <v>-0.7</v>
+      </c>
+      <c r="C208" s="13">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="7">
+        <v>43220</v>
+      </c>
+      <c r="B209" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="C209" s="13">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="7">
+        <v>43251</v>
+      </c>
+      <c r="B210" s="13">
+        <v>-0.22</v>
+      </c>
+      <c r="C210" s="13">
+        <v>27.61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="7">
+        <v>43281</v>
+      </c>
+      <c r="B211" s="13">
+        <v>-0.01</v>
+      </c>
+      <c r="C211" s="13">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="7">
+        <v>43312</v>
+      </c>
+      <c r="B212" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="C212" s="13">
+        <v>27.38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="7">
+        <v>43343</v>
+      </c>
+      <c r="B213" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="C213" s="13">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="7">
+        <v>43373</v>
+      </c>
+      <c r="B214" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="C214" s="13">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="7">
+        <v>43404</v>
+      </c>
+      <c r="B215" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="C215" s="13">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="7">
+        <v>43434</v>
+      </c>
+      <c r="B216" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="C216" s="13">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="7">
+        <v>43465</v>
+      </c>
+      <c r="B217" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="C217" s="13">
+        <v>27.43</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="7">
+        <v>43496</v>
+      </c>
+      <c r="B218" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="C218" s="13">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="7">
+        <v>43524</v>
+      </c>
+      <c r="B219" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="C219" s="13">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="7">
+        <v>43555</v>
+      </c>
+      <c r="B220" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="C220" s="13">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="7">
+        <v>43585</v>
+      </c>
+      <c r="B221" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="C221" s="13">
+        <v>28.34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="7">
+        <v>43616</v>
+      </c>
+      <c r="B222" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="C222" s="13">
+        <v>28.37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="7">
+        <v>43646</v>
+      </c>
+      <c r="B223" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="C223" s="13">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="7">
+        <v>43677</v>
+      </c>
+      <c r="B224" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C224" s="13">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="7">
+        <v>43708</v>
+      </c>
+      <c r="B225" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C225" s="13">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="7">
+        <v>43738</v>
+      </c>
+      <c r="B226" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="C226" s="13">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="7">
+        <v>43769</v>
+      </c>
+      <c r="B227" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="C227" s="13">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="7">
+        <v>43799</v>
+      </c>
+      <c r="B228" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="C228" s="13">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="7">
+        <v>43830</v>
+      </c>
+      <c r="B229" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C229" s="13">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="7">
+        <v>43861</v>
+      </c>
+      <c r="B230" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C230" s="13">
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="7">
+        <v>43890</v>
+      </c>
+      <c r="B231" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="C231" s="13">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="7">
+        <v>43921</v>
+      </c>
+      <c r="B232" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="C232" s="13">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="7">
+        <v>43951</v>
+      </c>
+      <c r="B233" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="C233" s="13">
+        <v>27.87</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="7">
+        <v>43982</v>
+      </c>
+      <c r="B234" s="13">
+        <v>-0.08</v>
+      </c>
+      <c r="C234" s="13">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="7">
+        <v>44012</v>
+      </c>
+      <c r="B235" s="13">
+        <v>-0.3</v>
+      </c>
+      <c r="C235" s="13">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="7">
+        <v>44043</v>
+      </c>
+      <c r="B236" s="13">
+        <v>-0.41</v>
+      </c>
+      <c r="C236" s="13">
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="7">
+        <v>44074</v>
+      </c>
+      <c r="B237" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="C237" s="13">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="7">
+        <v>44104</v>
+      </c>
+      <c r="B238" s="13">
+        <v>-0.89</v>
+      </c>
+      <c r="C238" s="13">
+        <v>25.87</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="7">
+        <v>44135</v>
+      </c>
+      <c r="B239" s="13">
+        <v>-1.17</v>
+      </c>
+      <c r="C239" s="13">
+        <v>25.54</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="7">
+        <v>44165</v>
+      </c>
+      <c r="B240" s="13">
+        <v>-1.27</v>
+      </c>
+      <c r="C240" s="13">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="7">
+        <v>44196</v>
+      </c>
+      <c r="B241" s="13">
+        <v>-1.19</v>
+      </c>
+      <c r="C241" s="13">
+        <v>25.43</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="7">
+        <v>44227</v>
+      </c>
+      <c r="B242" s="13">
+        <v>-1.05</v>
+      </c>
+      <c r="C242" s="13">
+        <v>25.59</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="7">
+        <v>44255</v>
+      </c>
+      <c r="B243" s="13">
+        <v>-0.93</v>
+      </c>
+      <c r="C243" s="13">
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="7">
+        <v>44286</v>
+      </c>
+      <c r="B244" s="13">
+        <v>-0.84</v>
+      </c>
+      <c r="C244" s="13">
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="7">
+        <v>44316</v>
+      </c>
+      <c r="B245" s="13">
+        <v>-0.66</v>
+      </c>
+      <c r="C245" s="13">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="7">
+        <v>44347</v>
+      </c>
+      <c r="B246" s="13">
+        <v>-0.48</v>
+      </c>
+      <c r="C246" s="13">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="7">
+        <v>44377</v>
+      </c>
+      <c r="B247" s="13">
+        <v>-0.38</v>
+      </c>
+      <c r="C247" s="13">
+        <v>27.28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="7">
+        <v>44408</v>
+      </c>
+      <c r="B248" s="13">
+        <v>-0.4</v>
+      </c>
+      <c r="C248" s="13">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="7">
+        <v>44439</v>
+      </c>
+      <c r="B249" s="13">
+        <v>-0.49</v>
+      </c>
+      <c r="C249" s="13">
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="7">
+        <v>44469</v>
+      </c>
+      <c r="B250" s="13">
+        <v>-0.67</v>
+      </c>
+      <c r="C250" s="13">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="7">
+        <v>44500</v>
+      </c>
+      <c r="B251" s="13">
+        <v>-0.81</v>
+      </c>
+      <c r="C251" s="13">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="7">
+        <v>44530</v>
+      </c>
+      <c r="B252" s="13">
+        <v>-0.98</v>
+      </c>
+      <c r="C252" s="13">
+        <v>25.69</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="7">
+        <v>44561</v>
+      </c>
+      <c r="B253" s="13">
+        <v>-0.98</v>
+      </c>
+      <c r="C253" s="13">
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="7">
+        <v>44592</v>
+      </c>
+      <c r="B254" s="13">
+        <v>-0.97</v>
+      </c>
+      <c r="C254" s="13">
+        <v>25.67</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="7">
+        <v>44620</v>
+      </c>
+      <c r="B255" s="13">
+        <v>-0.93</v>
+      </c>
+      <c r="C255" s="13">
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="7">
+        <v>44651</v>
+      </c>
+      <c r="B256" s="13">
+        <v>-0.99</v>
+      </c>
+      <c r="C256" s="13">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="7">
+        <v>44681</v>
+      </c>
+      <c r="B257" s="13">
+        <v>-1.06</v>
+      </c>
+      <c r="C257" s="13">
+        <v>26.62</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="7">
+        <v>44712</v>
+      </c>
+      <c r="B258" s="13">
+        <v>-0.99</v>
+      </c>
+      <c r="C258" s="13">
+        <v>26.84</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="7">
+        <v>44742</v>
+      </c>
+      <c r="B259" s="13">
+        <v>-0.85</v>
+      </c>
+      <c r="C259" s="13">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="7">
+        <v>44773</v>
+      </c>
+      <c r="B260" s="13">
+        <v>-0.81</v>
+      </c>
+      <c r="C260" s="13">
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="7">
+        <v>44804</v>
+      </c>
+      <c r="B261" s="13">
+        <v>-0.91</v>
+      </c>
+      <c r="C261" s="13">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="7">
+        <v>44834</v>
+      </c>
+      <c r="B262" s="13">
+        <v>-1.01</v>
+      </c>
+      <c r="C262" s="13">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="7">
+        <v>44865</v>
+      </c>
+      <c r="B263" s="13">
+        <v>-0.99</v>
+      </c>
+      <c r="C263" s="13">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="7">
+        <v>44895</v>
+      </c>
+      <c r="B264" s="13">
+        <v>-0.92</v>
+      </c>
+      <c r="C264" s="13">
+        <v>25.76</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="7">
+        <v>44926</v>
+      </c>
+      <c r="B265" s="13">
+        <v>-0.83</v>
+      </c>
+      <c r="C265" s="13">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="11">
+        <v>44957</v>
+      </c>
+      <c r="B266" s="13">
+        <v>-0.68</v>
+      </c>
+      <c r="C266" s="13">
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="11">
+        <v>44985</v>
+      </c>
+      <c r="B267" s="13">
+        <v>-0.43</v>
+      </c>
+      <c r="C267" s="13">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="11">
+        <v>45016</v>
+      </c>
+      <c r="B268" s="13">
+        <v>-0.15</v>
+      </c>
+      <c r="C268" s="13">
+        <v>27.15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="11">
+        <v>45046</v>
+      </c>
+      <c r="B269" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="C269" s="13">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="11">
+        <v>45077</v>
+      </c>
+      <c r="B270" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="C270" s="13">
+        <v>28.31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="11">
+        <v>45107</v>
+      </c>
+      <c r="B271" s="13">
+        <v>0.77</v>
+      </c>
+      <c r="C271" s="13">
+        <v>28.42</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="11">
+        <v>45138</v>
+      </c>
+      <c r="B272" s="13">
+        <v>1.07</v>
+      </c>
+      <c r="C272" s="13">
+        <v>28.36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="11">
+        <v>45169</v>
+      </c>
+      <c r="B273" s="13">
+        <v>1.32</v>
+      </c>
+      <c r="C273" s="13">
+        <v>28.28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="11">
+        <v>45199</v>
+      </c>
+      <c r="B274" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="C274" s="13">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="11">
+        <v>45230</v>
+      </c>
+      <c r="B275" s="13">
+        <v>1.78</v>
+      </c>
+      <c r="C275" s="13">
+        <v>28.49</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="11">
+        <v>45260</v>
+      </c>
+      <c r="B276" s="13">
+        <v>1.92</v>
+      </c>
+      <c r="C276" s="13">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="11">
+        <v>45291</v>
+      </c>
+      <c r="B277" s="13">
+        <v>1.97</v>
+      </c>
+      <c r="C277" s="13">
+        <v>28.59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/source-code/dataset/dataset_enso.xlsx
+++ b/source-code/dataset/dataset_enso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\! Riset Aryajaya Alamsyah\2024_BOPTN_Hopsot\source-code\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39821531-36D0-402F-BFA9-E37043151D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF4E3A4-C47D-4CB9-BCD8-F53332C97406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{CF254216-5D8D-451F-A3BE-D9028E746B88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{CF254216-5D8D-451F-A3BE-D9028E746B88}"/>
   </bookViews>
   <sheets>
     <sheet name="SOI" sheetId="1" r:id="rId1"/>
@@ -4098,7 +4098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7548ABF-5FB3-4511-8B60-8900F5DFAAA6}">
   <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -23072,7 +23072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B629332-3130-42C6-854B-F1B1A60DE610}">
   <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>

--- a/source-code/dataset/dataset_enso.xlsx
+++ b/source-code/dataset/dataset_enso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\! Riset Aryajaya Alamsyah\2024_BOPTN_Hopsot\source-code\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF4E3A4-C47D-4CB9-BCD8-F53332C97406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A16A3C4-24AA-4C65-93D6-E94F56D73C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{CF254216-5D8D-451F-A3BE-D9028E746B88}"/>
   </bookViews>
@@ -1687,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07F99F4-951D-4B62-8534-88BA3DD4137A}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="P27" sqref="P27:AA27"/>
     </sheetView>
   </sheetViews>
@@ -4099,7 +4099,7 @@
   <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7165,7 +7165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D93D5-01D5-47C9-AA32-3ABAE783D625}">
   <dimension ref="A1:M281"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L278" sqref="L278"/>
     </sheetView>
   </sheetViews>
